--- a/pic/dsoc_image.xlsx
+++ b/pic/dsoc_image.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2146" uniqueCount="1572">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2146" uniqueCount="1573">
   <si>
     <t>No.</t>
   </si>
@@ -2275,7 +2275,7 @@
     <t>…然后。</t>
   </si>
   <si>
-    <t>do_word_0</t>
+    <t>do_word_white</t>
   </si>
   <si>
     <t>54</t>
@@ -2362,6 +2362,9 @@
       </rPr>
       <t>失去力量的改造COMP，</t>
     </r>
+  </si>
+  <si>
+    <t>do_word_red</t>
   </si>
   <si>
     <t>56</t>
@@ -17078,9 +17081,9 @@
   <dimension ref="A1:F430"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A308" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D308" sqref="D308"/>
+      <selection pane="bottomLeft" activeCell="E54" sqref="E54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
@@ -18060,7 +18063,7 @@
       <c r="D54" s="15" t="s">
         <v>219</v>
       </c>
-      <c r="E54" s="16" t="s">
+      <c r="E54" s="7" t="s">
         <v>220</v>
       </c>
       <c r="F54" s="7"/>
@@ -18078,7 +18081,7 @@
       <c r="D55" s="15" t="s">
         <v>224</v>
       </c>
-      <c r="E55" s="16" t="s">
+      <c r="E55" s="7" t="s">
         <v>220</v>
       </c>
       <c r="F55" s="7"/>
@@ -18096,17 +18099,17 @@
       <c r="D56" s="15" t="s">
         <v>228</v>
       </c>
-      <c r="E56" s="16" t="s">
-        <v>10</v>
+      <c r="E56" s="7" t="s">
+        <v>229</v>
       </c>
       <c r="F56" s="7"/>
     </row>
     <row r="57" spans="1:6">
       <c r="A57" s="13" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B57" s="13" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C57" s="14" t="s">
         <v>227</v>
@@ -18114,59 +18117,59 @@
       <c r="D57" s="15" t="s">
         <v>228</v>
       </c>
-      <c r="E57" s="16" t="s">
+      <c r="E57" s="7" t="s">
         <v>220</v>
       </c>
       <c r="F57" s="7"/>
     </row>
     <row r="58" spans="1:6">
       <c r="A58" s="13" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B58" s="13" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C58" s="14" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D58" s="15" t="s">
-        <v>234</v>
-      </c>
-      <c r="E58" s="16" t="s">
-        <v>10</v>
+        <v>235</v>
+      </c>
+      <c r="E58" s="7" t="s">
+        <v>229</v>
       </c>
       <c r="F58" s="7"/>
     </row>
     <row r="59" spans="1:6">
       <c r="A59" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="B59" s="13" t="s">
+        <v>237</v>
+      </c>
+      <c r="C59" s="14" t="s">
+        <v>234</v>
+      </c>
+      <c r="D59" s="15" t="s">
         <v>235</v>
       </c>
-      <c r="B59" s="13" t="s">
-        <v>236</v>
-      </c>
-      <c r="C59" s="14" t="s">
-        <v>233</v>
-      </c>
-      <c r="D59" s="15" t="s">
-        <v>234</v>
-      </c>
-      <c r="E59" s="16" t="s">
+      <c r="E59" s="7" t="s">
         <v>220</v>
       </c>
       <c r="F59" s="7"/>
     </row>
     <row r="60" spans="1:6">
       <c r="A60" s="13" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B60" s="13" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C60" s="14" t="s">
         <v>81</v>
       </c>
       <c r="D60" s="15" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E60" s="16" t="s">
         <v>83</v>
@@ -18175,16 +18178,16 @@
     </row>
     <row r="61" spans="1:6">
       <c r="A61" s="13" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B61" s="13" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C61" s="14" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D61" s="15" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E61" s="16" t="s">
         <v>83</v>
@@ -18193,16 +18196,16 @@
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="13" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B62" s="13" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C62" s="14" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D62" s="15" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E62" s="16" t="s">
         <v>83</v>
@@ -18211,16 +18214,16 @@
     </row>
     <row r="63" spans="1:6">
       <c r="A63" s="13" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B63" s="13" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C63" s="14" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E63" s="16" t="s">
         <v>83</v>
@@ -18229,16 +18232,16 @@
     </row>
     <row r="64" spans="1:6">
       <c r="A64" s="13" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B64" s="13" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C64" s="14" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D64" s="15" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E64" s="16" t="s">
         <v>83</v>
@@ -18247,16 +18250,16 @@
     </row>
     <row r="65" spans="1:6">
       <c r="A65" s="13" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B65" s="13" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C65" s="14" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D65" s="15" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="E65" s="16" t="s">
         <v>83</v>
@@ -18265,16 +18268,16 @@
     </row>
     <row r="66" spans="1:6">
       <c r="A66" s="13" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B66" s="13" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C66" s="14" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D66" s="15" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E66" s="16" t="s">
         <v>83</v>
@@ -18283,16 +18286,16 @@
     </row>
     <row r="67" spans="1:6">
       <c r="A67" s="13" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B67" s="13" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C67" s="14" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D67" s="15" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E67" s="16" t="s">
         <v>83</v>
@@ -18301,16 +18304,16 @@
     </row>
     <row r="68" spans="1:6">
       <c r="A68" s="13" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B68" s="13" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C68" s="14" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D68" s="15" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="E68" s="16" t="s">
         <v>83</v>
@@ -18319,16 +18322,16 @@
     </row>
     <row r="69" spans="1:6">
       <c r="A69" s="13" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B69" s="13" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C69" s="14" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D69" s="15" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E69" s="16" t="s">
         <v>83</v>
@@ -18337,16 +18340,16 @@
     </row>
     <row r="70" spans="1:6">
       <c r="A70" s="13" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B70" s="13" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C70" s="14" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D70" s="15" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E70" s="16" t="s">
         <v>83</v>
@@ -18355,16 +18358,16 @@
     </row>
     <row r="71" spans="1:6">
       <c r="A71" s="13" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B71" s="13" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C71" s="14" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D71" s="15" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E71" s="16" t="s">
         <v>83</v>
@@ -18373,16 +18376,16 @@
     </row>
     <row r="72" spans="1:6">
       <c r="A72" s="13" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B72" s="13" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C72" s="14" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D72" s="15" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E72" s="16" t="s">
         <v>10</v>
@@ -18391,16 +18394,16 @@
     </row>
     <row r="73" spans="1:6">
       <c r="A73" s="13" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B73" s="13" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C73" s="14" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D73" s="15" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E73" s="16" t="s">
         <v>10</v>
@@ -18409,16 +18412,16 @@
     </row>
     <row r="74" spans="1:6">
       <c r="A74" s="13" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B74" s="13" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C74" s="14" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E74" s="16" t="s">
         <v>10</v>
@@ -18427,16 +18430,16 @@
     </row>
     <row r="75" spans="1:6">
       <c r="A75" s="13" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B75" s="13" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C75" s="14" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D75" s="15" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E75" s="16" t="s">
         <v>10</v>
@@ -18445,16 +18448,16 @@
     </row>
     <row r="76" spans="1:6">
       <c r="A76" s="13" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B76" s="13" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C76" s="14" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D76" s="15" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="E76" s="16" t="s">
         <v>10</v>
@@ -18463,16 +18466,16 @@
     </row>
     <row r="77" spans="1:6">
       <c r="A77" s="13" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B77" s="13" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C77" s="14" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D77" s="15" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="E77" s="16" t="s">
         <v>10</v>
@@ -18481,10 +18484,10 @@
     </row>
     <row r="78" spans="1:6">
       <c r="A78" s="13" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B78" s="13" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C78" s="14" t="s">
         <v>166</v>
@@ -18499,10 +18502,10 @@
     </row>
     <row r="79" spans="1:6">
       <c r="A79" s="13" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B79" s="13" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C79" s="14" t="s">
         <v>170</v>
@@ -18517,10 +18520,10 @@
     </row>
     <row r="80" spans="1:6">
       <c r="A80" s="13" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B80" s="13" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C80" s="14" t="s">
         <v>174</v>
@@ -18535,10 +18538,10 @@
     </row>
     <row r="81" spans="1:6">
       <c r="A81" s="13" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B81" s="13" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C81" s="14" t="s">
         <v>178</v>
@@ -18553,10 +18556,10 @@
     </row>
     <row r="82" spans="1:6">
       <c r="A82" s="13" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B82" s="13" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C82" s="14" t="s">
         <v>182</v>
@@ -18571,10 +18574,10 @@
     </row>
     <row r="83" spans="1:6">
       <c r="A83" s="13" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B83" s="13" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C83" s="14" t="s">
         <v>186</v>
@@ -18589,10 +18592,10 @@
     </row>
     <row r="84" spans="1:6">
       <c r="A84" s="13" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B84" s="13" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C84" s="14" t="s">
         <v>190</v>
@@ -18607,10 +18610,10 @@
     </row>
     <row r="85" spans="1:6">
       <c r="A85" s="13" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B85" s="13" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C85" s="14" t="s">
         <v>194</v>
@@ -18625,10 +18628,10 @@
     </row>
     <row r="86" spans="1:6">
       <c r="A86" s="13" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B86" s="13" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C86" s="14" t="s">
         <v>198</v>
@@ -18643,10 +18646,10 @@
     </row>
     <row r="87" spans="1:6">
       <c r="A87" s="13" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B87" s="13" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C87" s="14" t="s">
         <v>202</v>
@@ -18661,16 +18664,16 @@
     </row>
     <row r="88" spans="1:6">
       <c r="A88" s="13" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B88" s="13" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C88" s="14" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D88" s="15" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="E88" s="16" t="s">
         <v>10</v>
@@ -18679,16 +18682,16 @@
     </row>
     <row r="89" spans="1:6">
       <c r="A89" s="13" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B89" s="13" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C89" s="14" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D89" s="15" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="E89" s="16" t="s">
         <v>10</v>
@@ -18697,16 +18700,16 @@
     </row>
     <row r="90" spans="1:6">
       <c r="A90" s="13" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B90" s="13" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C90" s="14" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D90" s="15" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E90" s="16" t="s">
         <v>10</v>
@@ -18715,16 +18718,16 @@
     </row>
     <row r="91" spans="1:6">
       <c r="A91" s="13" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B91" s="13" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C91" s="14" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D91" s="15" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="E91" s="16" t="s">
         <v>10</v>
@@ -18733,16 +18736,16 @@
     </row>
     <row r="92" spans="1:6">
       <c r="A92" s="13" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B92" s="13" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C92" s="14" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D92" s="15" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="E92" s="16" t="s">
         <v>10</v>
@@ -18751,16 +18754,16 @@
     </row>
     <row r="93" spans="1:6">
       <c r="A93" s="13" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B93" s="13" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C93" s="14" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D93" s="17" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="E93" s="16" t="s">
         <v>10</v>
@@ -18769,16 +18772,16 @@
     </row>
     <row r="94" spans="1:6">
       <c r="A94" s="13" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B94" s="13" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C94" s="14" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D94" s="17" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="E94" s="16" t="s">
         <v>10</v>
@@ -18787,16 +18790,16 @@
     </row>
     <row r="95" spans="1:6">
       <c r="A95" s="13" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B95" s="13" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C95" s="14" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D95" s="15" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="E95" s="16" t="s">
         <v>10</v>
@@ -18805,16 +18808,16 @@
     </row>
     <row r="96" spans="1:6">
       <c r="A96" s="13" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B96" s="13" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C96" s="14" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D96" s="17" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="E96" s="16" t="s">
         <v>10</v>
@@ -18823,16 +18826,16 @@
     </row>
     <row r="97" spans="1:6">
       <c r="A97" s="13" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B97" s="13" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C97" s="14" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D97" s="15" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="E97" s="16" t="s">
         <v>10</v>
@@ -18841,16 +18844,16 @@
     </row>
     <row r="98" spans="1:6">
       <c r="A98" s="13" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B98" s="13" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C98" s="14" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D98" s="15" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="E98" s="16" t="s">
         <v>10</v>
@@ -18859,16 +18862,16 @@
     </row>
     <row r="99" spans="1:6">
       <c r="A99" s="13" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B99" s="13" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C99" s="14" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="D99" s="17" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="E99" s="16" t="s">
         <v>10</v>
@@ -18877,16 +18880,16 @@
     </row>
     <row r="100" spans="1:6">
       <c r="A100" s="13" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B100" s="13" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C100" s="14" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D100" s="17" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="E100" s="16" t="s">
         <v>10</v>
@@ -18895,16 +18898,16 @@
     </row>
     <row r="101" spans="1:6">
       <c r="A101" s="13" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B101" s="13" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C101" s="14" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="D101" s="15" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="E101" s="16" t="s">
         <v>10</v>
@@ -18913,16 +18916,16 @@
     </row>
     <row r="102" spans="1:6">
       <c r="A102" s="13" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B102" s="13" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C102" s="14" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D102" s="15" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="E102" s="16" t="s">
         <v>10</v>
@@ -18931,16 +18934,16 @@
     </row>
     <row r="103" spans="1:6">
       <c r="A103" s="13" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B103" s="13" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C103" s="14" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="D103" s="17" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="E103" s="16" t="s">
         <v>10</v>
@@ -18949,16 +18952,16 @@
     </row>
     <row r="104" spans="1:6">
       <c r="A104" s="13" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B104" s="13" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C104" s="14" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="D104" s="15" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="E104" s="16" t="s">
         <v>10</v>
@@ -18967,16 +18970,16 @@
     </row>
     <row r="105" spans="1:6">
       <c r="A105" s="13" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B105" s="13" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C105" s="14" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="D105" s="17" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="E105" s="16" t="s">
         <v>10</v>
@@ -18985,10 +18988,10 @@
     </row>
     <row r="106" spans="1:6">
       <c r="A106" s="13" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B106" s="13" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C106" s="14" t="s">
         <v>227</v>
@@ -19003,10 +19006,10 @@
     </row>
     <row r="107" spans="1:6">
       <c r="A107" s="13" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B107" s="13" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C107" s="14" t="s">
         <v>227</v>
@@ -19021,16 +19024,16 @@
     </row>
     <row r="108" spans="1:6">
       <c r="A108" s="13" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B108" s="13" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C108" s="14" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D108" s="15" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E108" s="16" t="s">
         <v>10</v>
@@ -19039,16 +19042,16 @@
     </row>
     <row r="109" spans="1:6">
       <c r="A109" s="13" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B109" s="13" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C109" s="14" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D109" s="15" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E109" s="16" t="s">
         <v>10</v>
@@ -19057,16 +19060,16 @@
     </row>
     <row r="110" spans="1:6">
       <c r="A110" s="13" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B110" s="13" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C110" s="14" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="D110" s="17" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="E110" s="16" t="s">
         <v>83</v>
@@ -19075,16 +19078,16 @@
     </row>
     <row r="111" spans="1:6">
       <c r="A111" s="13" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B111" s="13" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C111" s="14" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="D111" s="15" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="E111" s="16" t="s">
         <v>83</v>
@@ -19093,16 +19096,16 @@
     </row>
     <row r="112" spans="1:6">
       <c r="A112" s="13" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B112" s="13" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C112" s="14" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="D112" s="15" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="E112" s="16" t="s">
         <v>83</v>
@@ -19111,16 +19114,16 @@
     </row>
     <row r="113" spans="1:6">
       <c r="A113" s="13" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B113" s="13" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C113" s="14" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="D113" s="15" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="E113" s="16" t="s">
         <v>83</v>
@@ -19129,16 +19132,16 @@
     </row>
     <row r="114" spans="1:6">
       <c r="A114" s="13" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B114" s="13" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C114" s="14" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="D114" s="15" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="E114" s="16" t="s">
         <v>83</v>
@@ -19147,16 +19150,16 @@
     </row>
     <row r="115" spans="1:6">
       <c r="A115" s="13" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B115" s="13" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C115" s="14" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="D115" s="15" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="E115" s="16" t="s">
         <v>83</v>
@@ -19165,16 +19168,16 @@
     </row>
     <row r="116" spans="1:6">
       <c r="A116" s="13" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B116" s="13" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C116" s="14" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D116" s="15" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="E116" s="16" t="s">
         <v>83</v>
@@ -19183,16 +19186,16 @@
     </row>
     <row r="117" spans="1:6">
       <c r="A117" s="13" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B117" s="13" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C117" s="14" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="D117" s="15" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="E117" s="16" t="s">
         <v>83</v>
@@ -19201,16 +19204,16 @@
     </row>
     <row r="118" spans="1:6">
       <c r="A118" s="13" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B118" s="13" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C118" s="14" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="D118" s="15" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="E118" s="16" t="s">
         <v>83</v>
@@ -19219,16 +19222,16 @@
     </row>
     <row r="119" spans="1:6">
       <c r="A119" s="13" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B119" s="13" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C119" s="14" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="D119" s="15" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="E119" s="16" t="s">
         <v>83</v>
@@ -19237,16 +19240,16 @@
     </row>
     <row r="120" spans="1:6">
       <c r="A120" s="13" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B120" s="13" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C120" s="14" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="D120" s="15" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="E120" s="16" t="s">
         <v>83</v>
@@ -19255,16 +19258,16 @@
     </row>
     <row r="121" spans="1:6">
       <c r="A121" s="13" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B121" s="13" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C121" s="14" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="D121" s="15" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="E121" s="16" t="s">
         <v>83</v>
@@ -19273,16 +19276,16 @@
     </row>
     <row r="122" spans="1:6">
       <c r="A122" s="13" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B122" s="13" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C122" s="14" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="D122" s="15" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="E122" s="16" t="s">
         <v>83</v>
@@ -19291,16 +19294,16 @@
     </row>
     <row r="123" spans="1:6">
       <c r="A123" s="13" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B123" s="13" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C123" s="14" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="D123" s="15" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="E123" s="16" t="s">
         <v>83</v>
@@ -19309,16 +19312,16 @@
     </row>
     <row r="124" spans="1:6">
       <c r="A124" s="13" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B124" s="13" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C124" s="14" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="D124" s="15" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="E124" s="16" t="s">
         <v>83</v>
@@ -19327,16 +19330,16 @@
     </row>
     <row r="125" spans="1:6">
       <c r="A125" s="13" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B125" s="13" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C125" s="14" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="D125" s="15" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="E125" s="16" t="s">
         <v>83</v>
@@ -19345,16 +19348,16 @@
     </row>
     <row r="126" spans="1:6">
       <c r="A126" s="13" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B126" s="13" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="C126" s="14" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="D126" s="15" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="E126" s="16" t="s">
         <v>83</v>
@@ -19363,16 +19366,16 @@
     </row>
     <row r="127" spans="1:6">
       <c r="A127" s="13" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B127" s="13" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C127" s="14" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="D127" s="15" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="E127" s="16" t="s">
         <v>83</v>
@@ -19381,16 +19384,16 @@
     </row>
     <row r="128" spans="1:6">
       <c r="A128" s="13" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B128" s="13" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C128" s="14" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="D128" s="15" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="E128" s="16" t="s">
         <v>83</v>
@@ -19399,16 +19402,16 @@
     </row>
     <row r="129" spans="1:6">
       <c r="A129" s="13" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B129" s="13" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="C129" s="14" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="D129" s="17" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="E129" s="16" t="s">
         <v>83</v>
@@ -19417,16 +19420,16 @@
     </row>
     <row r="130" spans="1:6">
       <c r="A130" s="13" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B130" s="13" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C130" s="14" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="D130" s="15" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="E130" s="16" t="s">
         <v>83</v>
@@ -19435,16 +19438,16 @@
     </row>
     <row r="131" spans="1:6">
       <c r="A131" s="13" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B131" s="13" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="C131" s="14" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="D131" s="15" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="E131" s="16" t="s">
         <v>83</v>
@@ -19453,16 +19456,16 @@
     </row>
     <row r="132" spans="1:6">
       <c r="A132" s="13" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B132" s="13" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C132" s="14" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="D132" s="15" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="E132" s="16" t="s">
         <v>83</v>
@@ -19471,16 +19474,16 @@
     </row>
     <row r="133" spans="1:6">
       <c r="A133" s="13" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B133" s="13" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C133" s="14" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="D133" s="17" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="E133" s="16" t="s">
         <v>10</v>
@@ -19489,16 +19492,16 @@
     </row>
     <row r="134" spans="1:6">
       <c r="A134" s="13" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B134" s="13" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C134" s="14" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="D134" s="15" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="E134" s="16" t="s">
         <v>10</v>
@@ -19507,16 +19510,16 @@
     </row>
     <row r="135" spans="1:6">
       <c r="A135" s="13" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B135" s="13" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C135" s="14" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="D135" s="15" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="E135" s="16" t="s">
         <v>10</v>
@@ -19525,16 +19528,16 @@
     </row>
     <row r="136" spans="1:6">
       <c r="A136" s="13" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="B136" s="13" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="C136" s="14" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="D136" s="17" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="E136" s="16" t="s">
         <v>10</v>
@@ -19543,16 +19546,16 @@
     </row>
     <row r="137" spans="1:6">
       <c r="A137" s="13" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B137" s="13" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="C137" s="14" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="D137" s="15" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="E137" s="16" t="s">
         <v>10</v>
@@ -19561,16 +19564,16 @@
     </row>
     <row r="138" spans="1:6">
       <c r="A138" s="13" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B138" s="13" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C138" s="14" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="D138" s="15" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="E138" s="16" t="s">
         <v>10</v>
@@ -19579,16 +19582,16 @@
     </row>
     <row r="139" spans="1:6">
       <c r="A139" s="13" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B139" s="13" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="C139" s="14" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="D139" s="15" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="E139" s="16" t="s">
         <v>10</v>
@@ -19597,16 +19600,16 @@
     </row>
     <row r="140" spans="1:6">
       <c r="A140" s="13" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="B140" s="13" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="C140" s="14" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="D140" s="17" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="E140" s="16" t="s">
         <v>10</v>
@@ -19615,16 +19618,16 @@
     </row>
     <row r="141" spans="1:6">
       <c r="A141" s="13" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B141" s="13" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="C141" s="14" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="D141" s="15" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="E141" s="16" t="s">
         <v>10</v>
@@ -19633,16 +19636,16 @@
     </row>
     <row r="142" spans="1:6">
       <c r="A142" s="13" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="B142" s="13" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="C142" s="14" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="D142" s="15" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="E142" s="16" t="s">
         <v>10</v>
@@ -19651,16 +19654,16 @@
     </row>
     <row r="143" spans="1:6">
       <c r="A143" s="13" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="B143" s="13" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="C143" s="14" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="D143" s="15" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="E143" s="16" t="s">
         <v>10</v>
@@ -19669,16 +19672,16 @@
     </row>
     <row r="144" spans="1:6">
       <c r="A144" s="13" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="B144" s="13" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="C144" s="14" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="D144" s="15" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="E144" s="16" t="s">
         <v>10</v>
@@ -19687,16 +19690,16 @@
     </row>
     <row r="145" spans="1:6">
       <c r="A145" s="13" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="B145" s="13" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="C145" s="14" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="D145" s="15" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="E145" s="16" t="s">
         <v>10</v>
@@ -19705,16 +19708,16 @@
     </row>
     <row r="146" spans="1:6">
       <c r="A146" s="13" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="B146" s="13" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="C146" s="14" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="D146" s="15" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="E146" s="16" t="s">
         <v>10</v>
@@ -19723,16 +19726,16 @@
     </row>
     <row r="147" spans="1:6">
       <c r="A147" s="13" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B147" s="13" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="C147" s="14" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="D147" s="15" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="E147" s="16" t="s">
         <v>10</v>
@@ -19741,16 +19744,16 @@
     </row>
     <row r="148" spans="1:6">
       <c r="A148" s="13" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="B148" s="13" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="C148" s="14" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="D148" s="15" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="E148" s="16" t="s">
         <v>10</v>
@@ -19759,16 +19762,16 @@
     </row>
     <row r="149" spans="1:6">
       <c r="A149" s="13" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="B149" s="13" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="C149" s="14" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="D149" s="15" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="E149" s="16" t="s">
         <v>10</v>
@@ -19777,16 +19780,16 @@
     </row>
     <row r="150" spans="1:6">
       <c r="A150" s="13" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="B150" s="13" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="C150" s="14" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="D150" s="15" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="E150" s="16" t="s">
         <v>10</v>
@@ -19795,16 +19798,16 @@
     </row>
     <row r="151" spans="1:6">
       <c r="A151" s="13" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="B151" s="13" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="C151" s="14" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="D151" s="15" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="E151" s="16" t="s">
         <v>10</v>
@@ -19813,16 +19816,16 @@
     </row>
     <row r="152" spans="1:6">
       <c r="A152" s="13" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="B152" s="13" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="C152" s="14" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="D152" s="15" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="E152" s="16" t="s">
         <v>10</v>
@@ -19831,16 +19834,16 @@
     </row>
     <row r="153" spans="1:6">
       <c r="A153" s="13" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="B153" s="13" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="C153" s="14" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="D153" s="15" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="E153" s="16" t="s">
         <v>10</v>
@@ -19849,16 +19852,16 @@
     </row>
     <row r="154" spans="1:6">
       <c r="A154" s="13" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="B154" s="13" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="C154" s="14" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="D154" s="15" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="E154" s="16" t="s">
         <v>10</v>
@@ -19867,16 +19870,16 @@
     </row>
     <row r="155" spans="1:6">
       <c r="A155" s="13" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="B155" s="13" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="C155" s="14" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="D155" s="17" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="E155" s="16" t="s">
         <v>10</v>
@@ -19885,16 +19888,16 @@
     </row>
     <row r="156" spans="1:6">
       <c r="A156" s="13" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="B156" s="13" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="C156" s="14" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="D156" s="15" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="E156" s="16" t="s">
         <v>10</v>
@@ -19903,16 +19906,16 @@
     </row>
     <row r="157" spans="1:6">
       <c r="A157" s="13" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="B157" s="13" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="C157" s="14" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="D157" s="15" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="E157" s="16" t="s">
         <v>83</v>
@@ -19921,16 +19924,16 @@
     </row>
     <row r="158" spans="1:6">
       <c r="A158" s="13" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="B158" s="13" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="C158" s="14" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="D158" s="15" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="E158" s="16" t="s">
         <v>83</v>
@@ -19939,16 +19942,16 @@
     </row>
     <row r="159" spans="1:6">
       <c r="A159" s="13" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="B159" s="13" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="C159" s="14" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="D159" s="15" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="E159" s="16" t="s">
         <v>83</v>
@@ -19957,16 +19960,16 @@
     </row>
     <row r="160" spans="1:6">
       <c r="A160" s="13" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="B160" s="13" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="C160" s="14" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="D160" s="17" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="E160" s="16" t="s">
         <v>83</v>
@@ -19975,16 +19978,16 @@
     </row>
     <row r="161" spans="1:6">
       <c r="A161" s="13" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B161" s="13" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="C161" s="14" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="D161" s="15" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="E161" s="16" t="s">
         <v>83</v>
@@ -19993,16 +19996,16 @@
     </row>
     <row r="162" spans="1:6">
       <c r="A162" s="13" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="B162" s="13" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="C162" s="14" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="D162" s="15" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="E162" s="16" t="s">
         <v>83</v>
@@ -20011,16 +20014,16 @@
     </row>
     <row r="163" spans="1:6">
       <c r="A163" s="13" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="B163" s="13" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="C163" s="14" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="D163" s="15" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="E163" s="16" t="s">
         <v>83</v>
@@ -20029,16 +20032,16 @@
     </row>
     <row r="164" spans="1:6">
       <c r="A164" s="13" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="B164" s="13" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="C164" s="14" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="D164" s="15" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="E164" s="16" t="s">
         <v>83</v>
@@ -20047,16 +20050,16 @@
     </row>
     <row r="165" spans="1:6">
       <c r="A165" s="13" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="B165" s="13" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="C165" s="14" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="D165" s="15" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="E165" s="16" t="s">
         <v>83</v>
@@ -20065,16 +20068,16 @@
     </row>
     <row r="166" spans="1:6">
       <c r="A166" s="13" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="B166" s="13" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="C166" s="14" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="D166" s="15" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="E166" s="16" t="s">
         <v>83</v>
@@ -20083,16 +20086,16 @@
     </row>
     <row r="167" spans="1:6">
       <c r="A167" s="13" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="B167" s="13" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="C167" s="14" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="D167" s="17" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="E167" s="16" t="s">
         <v>83</v>
@@ -20101,16 +20104,16 @@
     </row>
     <row r="168" spans="1:6">
       <c r="A168" s="13" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="B168" s="13" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="C168" s="14" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="D168" s="15" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="E168" s="16" t="s">
         <v>83</v>
@@ -20119,16 +20122,16 @@
     </row>
     <row r="169" spans="1:6">
       <c r="A169" s="13" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="B169" s="13" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="C169" s="14" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="D169" s="15" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="E169" s="16" t="s">
         <v>83</v>
@@ -20137,16 +20140,16 @@
     </row>
     <row r="170" spans="1:6">
       <c r="A170" s="13" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="B170" s="13" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="C170" s="14" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="D170" s="15" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="E170" s="16" t="s">
         <v>10</v>
@@ -20155,16 +20158,16 @@
     </row>
     <row r="171" spans="1:6">
       <c r="A171" s="13" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="B171" s="13" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="C171" s="14" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="D171" s="15" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="E171" s="16" t="s">
         <v>10</v>
@@ -20173,16 +20176,16 @@
     </row>
     <row r="172" spans="1:6">
       <c r="A172" s="13" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="B172" s="13" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="C172" s="14" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="D172" s="15" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="E172" s="16" t="s">
         <v>10</v>
@@ -20191,16 +20194,16 @@
     </row>
     <row r="173" spans="1:6">
       <c r="A173" s="13" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="B173" s="13" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="C173" s="14" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="D173" s="15" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="E173" s="16" t="s">
         <v>10</v>
@@ -20209,16 +20212,16 @@
     </row>
     <row r="174" spans="1:6">
       <c r="A174" s="13" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="B174" s="13" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="C174" s="14" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="D174" s="15" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="E174" s="16" t="s">
         <v>10</v>
@@ -20227,16 +20230,16 @@
     </row>
     <row r="175" spans="1:6">
       <c r="A175" s="13" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="B175" s="13" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="C175" s="14" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="D175" s="15" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="E175" s="16" t="s">
         <v>10</v>
@@ -20245,16 +20248,16 @@
     </row>
     <row r="176" spans="1:6">
       <c r="A176" s="13" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="B176" s="13" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="C176" s="14" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="D176" s="15" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="E176" s="16" t="s">
         <v>10</v>
@@ -20263,16 +20266,16 @@
     </row>
     <row r="177" spans="1:6">
       <c r="A177" s="13" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="B177" s="13" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="C177" s="14" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="D177" s="17" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="E177" s="16" t="s">
         <v>10</v>
@@ -20281,16 +20284,16 @@
     </row>
     <row r="178" spans="1:6">
       <c r="A178" s="13" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="B178" s="13" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="C178" s="14" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="D178" s="15" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="E178" s="16" t="s">
         <v>10</v>
@@ -20299,16 +20302,16 @@
     </row>
     <row r="179" spans="1:6">
       <c r="A179" s="13" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="B179" s="13" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="C179" s="14" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="D179" s="17" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="E179" s="16" t="s">
         <v>10</v>
@@ -20317,16 +20320,16 @@
     </row>
     <row r="180" spans="1:6">
       <c r="A180" s="13" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="B180" s="13" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="C180" s="14" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="D180" s="15" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="E180" s="16" t="s">
         <v>10</v>
@@ -20335,16 +20338,16 @@
     </row>
     <row r="181" spans="1:6">
       <c r="A181" s="13" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="B181" s="13" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="C181" s="14" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="D181" s="15" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="E181" s="16" t="s">
         <v>10</v>
@@ -20353,16 +20356,16 @@
     </row>
     <row r="182" spans="1:6">
       <c r="A182" s="13" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="B182" s="13" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="C182" s="14" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="D182" s="17" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="E182" s="16" t="s">
         <v>10</v>
@@ -20371,16 +20374,16 @@
     </row>
     <row r="183" spans="1:6">
       <c r="A183" s="13" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="B183" s="13" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="C183" s="14" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="D183" s="15" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="E183" s="16" t="s">
         <v>10</v>
@@ -20389,16 +20392,16 @@
     </row>
     <row r="184" spans="1:6">
       <c r="A184" s="13" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="B184" s="13" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="C184" s="14" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="D184" s="15" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="E184" s="16" t="s">
         <v>10</v>
@@ -20407,16 +20410,16 @@
     </row>
     <row r="185" spans="1:6">
       <c r="A185" s="13" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="B185" s="13" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="C185" s="14" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="D185" s="15" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="E185" s="16" t="s">
         <v>10</v>
@@ -20425,16 +20428,16 @@
     </row>
     <row r="186" spans="1:6">
       <c r="A186" s="13" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="B186" s="13" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="C186" s="14" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="D186" s="15" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="E186" s="16" t="s">
         <v>10</v>
@@ -20443,16 +20446,16 @@
     </row>
     <row r="187" spans="1:6">
       <c r="A187" s="13" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="B187" s="13" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="C187" s="14" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="D187" s="17" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="E187" s="16" t="s">
         <v>10</v>
@@ -20461,16 +20464,16 @@
     </row>
     <row r="188" spans="1:6">
       <c r="A188" s="13" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="B188" s="13" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="C188" s="14" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="D188" s="17" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="E188" s="16" t="s">
         <v>10</v>
@@ -20479,16 +20482,16 @@
     </row>
     <row r="189" spans="1:6">
       <c r="A189" s="13" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="B189" s="13" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="C189" s="14" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="D189" s="17" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="E189" s="16" t="s">
         <v>10</v>
@@ -20497,16 +20500,16 @@
     </row>
     <row r="190" spans="1:6">
       <c r="A190" s="13" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="B190" s="13" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="C190" s="14" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="D190" s="15" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="E190" s="16" t="s">
         <v>10</v>
@@ -20515,16 +20518,16 @@
     </row>
     <row r="191" spans="1:6">
       <c r="A191" s="13" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="B191" s="13" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="C191" s="14" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="D191" s="15" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="E191" s="16" t="s">
         <v>10</v>
@@ -20533,16 +20536,16 @@
     </row>
     <row r="192" spans="1:6">
       <c r="A192" s="13" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="B192" s="13" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="C192" s="14" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="D192" s="15" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="E192" s="16" t="s">
         <v>10</v>
@@ -20551,16 +20554,16 @@
     </row>
     <row r="193" spans="1:6">
       <c r="A193" s="13" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="B193" s="13" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="C193" s="14" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="D193" s="15" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="E193" s="16" t="s">
         <v>10</v>
@@ -20569,16 +20572,16 @@
     </row>
     <row r="194" spans="1:6">
       <c r="A194" s="13" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="B194" s="13" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="C194" s="14" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="D194" s="15" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="E194" s="16" t="s">
         <v>83</v>
@@ -20587,16 +20590,16 @@
     </row>
     <row r="195" spans="1:6">
       <c r="A195" s="13" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="B195" s="13" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="C195" s="14" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="D195" s="17" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="E195" s="16" t="s">
         <v>83</v>
@@ -20605,16 +20608,16 @@
     </row>
     <row r="196" spans="1:6">
       <c r="A196" s="13" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="B196" s="13" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="C196" s="14" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="D196" s="15" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="E196" s="16" t="s">
         <v>83</v>
@@ -20623,16 +20626,16 @@
     </row>
     <row r="197" spans="1:6">
       <c r="A197" s="13" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="B197" s="13" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="C197" s="14" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="D197" s="15" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="E197" s="16" t="s">
         <v>83</v>
@@ -20641,16 +20644,16 @@
     </row>
     <row r="198" spans="1:6">
       <c r="A198" s="13" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="B198" s="13" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="C198" s="14" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="D198" s="15" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="E198" s="16" t="s">
         <v>83</v>
@@ -20659,16 +20662,16 @@
     </row>
     <row r="199" spans="1:6">
       <c r="A199" s="13" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="B199" s="13" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="C199" s="14" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="D199" s="15" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="E199" s="16" t="s">
         <v>83</v>
@@ -20677,16 +20680,16 @@
     </row>
     <row r="200" spans="1:6">
       <c r="A200" s="13" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="B200" s="13" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="C200" s="14" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="D200" s="17" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="E200" s="16" t="s">
         <v>83</v>
@@ -20695,16 +20698,16 @@
     </row>
     <row r="201" spans="1:6">
       <c r="A201" s="13" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="B201" s="13" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="C201" s="14" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="D201" s="15" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="E201" s="16" t="s">
         <v>83</v>
@@ -20713,16 +20716,16 @@
     </row>
     <row r="202" spans="1:6">
       <c r="A202" s="13" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="B202" s="13" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="C202" s="14" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="D202" s="15" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="E202" s="16" t="s">
         <v>83</v>
@@ -20731,16 +20734,16 @@
     </row>
     <row r="203" spans="1:6">
       <c r="A203" s="13" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="B203" s="13" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="C203" s="14" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="D203" s="15" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="E203" s="16" t="s">
         <v>83</v>
@@ -20749,16 +20752,16 @@
     </row>
     <row r="204" spans="1:6">
       <c r="A204" s="13" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="B204" s="13" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="C204" s="14" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="D204" s="17" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="E204" s="16" t="s">
         <v>83</v>
@@ -20767,16 +20770,16 @@
     </row>
     <row r="205" spans="1:6">
       <c r="A205" s="13" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="B205" s="13" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="C205" s="14" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="D205" s="15" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="E205" s="16" t="s">
         <v>83</v>
@@ -20785,16 +20788,16 @@
     </row>
     <row r="206" spans="1:6">
       <c r="A206" s="13" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="B206" s="13" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="C206" s="14" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="D206" s="15" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="E206" s="16" t="s">
         <v>10</v>
@@ -20803,16 +20806,16 @@
     </row>
     <row r="207" spans="1:6">
       <c r="A207" s="13" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="B207" s="13" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="C207" s="14" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="D207" s="17" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="E207" s="16" t="s">
         <v>10</v>
@@ -20821,10 +20824,10 @@
     </row>
     <row r="208" spans="1:6">
       <c r="A208" s="13" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="B208" s="13" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="C208" s="14" t="s">
         <v>174</v>
@@ -20839,16 +20842,16 @@
     </row>
     <row r="209" spans="1:6">
       <c r="A209" s="13" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="B209" s="13" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="C209" s="14" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="D209" s="17" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="E209" s="16" t="s">
         <v>10</v>
@@ -20857,16 +20860,16 @@
     </row>
     <row r="210" spans="1:6">
       <c r="A210" s="13" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="B210" s="13" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="C210" s="14" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="D210" s="15" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="E210" s="16" t="s">
         <v>10</v>
@@ -20875,16 +20878,16 @@
     </row>
     <row r="211" spans="1:6">
       <c r="A211" s="13" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="B211" s="13" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="C211" s="14" t="s">
         <v>162</v>
       </c>
       <c r="D211" s="15" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="E211" s="16" t="s">
         <v>10</v>
@@ -20893,10 +20896,10 @@
     </row>
     <row r="212" spans="1:6">
       <c r="A212" s="13" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="B212" s="13" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="C212" s="14" t="s">
         <v>178</v>
@@ -20911,16 +20914,16 @@
     </row>
     <row r="213" spans="1:6">
       <c r="A213" s="13" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="B213" s="13" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="C213" s="14" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="D213" s="15" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="E213" s="16" t="s">
         <v>10</v>
@@ -20929,16 +20932,16 @@
     </row>
     <row r="214" spans="1:6">
       <c r="A214" s="13" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="B214" s="13" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="C214" s="14" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="D214" s="15" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="E214" s="16" t="s">
         <v>10</v>
@@ -20947,16 +20950,16 @@
     </row>
     <row r="215" spans="1:6">
       <c r="A215" s="13" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="B215" s="13" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="C215" s="14" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="D215" s="15" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="E215" s="16" t="s">
         <v>10</v>
@@ -20965,16 +20968,16 @@
     </row>
     <row r="216" spans="1:6">
       <c r="A216" s="13" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="B216" s="13" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="C216" s="14" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="D216" s="15" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="E216" s="16" t="s">
         <v>10</v>
@@ -20983,16 +20986,16 @@
     </row>
     <row r="217" spans="1:6">
       <c r="A217" s="13" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="B217" s="13" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="C217" s="14" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="D217" s="15" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="E217" s="16" t="s">
         <v>10</v>
@@ -21001,16 +21004,16 @@
     </row>
     <row r="218" spans="1:6">
       <c r="A218" s="13" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="B218" s="13" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="C218" s="14" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="D218" s="15" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="E218" s="16" t="s">
         <v>10</v>
@@ -21019,16 +21022,16 @@
     </row>
     <row r="219" spans="1:6">
       <c r="A219" s="13" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="B219" s="13" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="C219" s="14" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="D219" s="15" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="E219" s="16" t="s">
         <v>10</v>
@@ -21037,16 +21040,16 @@
     </row>
     <row r="220" spans="1:6">
       <c r="A220" s="13" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B220" s="13" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="C220" s="14" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="D220" s="15" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="E220" s="16" t="s">
         <v>10</v>
@@ -21055,16 +21058,16 @@
     </row>
     <row r="221" spans="1:6">
       <c r="A221" s="13" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="B221" s="13" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="C221" s="14" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="D221" s="15" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="E221" s="16" t="s">
         <v>10</v>
@@ -21073,16 +21076,16 @@
     </row>
     <row r="222" spans="1:6">
       <c r="A222" s="13" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="B222" s="13" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="C222" s="14" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="D222" s="15" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="E222" s="16" t="s">
         <v>10</v>
@@ -21091,16 +21094,16 @@
     </row>
     <row r="223" spans="1:6">
       <c r="A223" s="13" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="B223" s="13" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="C223" s="14" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="D223" s="17" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="E223" s="16" t="s">
         <v>10</v>
@@ -21109,16 +21112,16 @@
     </row>
     <row r="224" spans="1:6">
       <c r="A224" s="13" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="B224" s="13" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="C224" s="14" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="D224" s="15" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="E224" s="16" t="s">
         <v>10</v>
@@ -21127,16 +21130,16 @@
     </row>
     <row r="225" spans="1:6">
       <c r="A225" s="13" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="B225" s="13" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="C225" s="14" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="D225" s="15" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="E225" s="16" t="s">
         <v>10</v>
@@ -21145,16 +21148,16 @@
     </row>
     <row r="226" spans="1:6">
       <c r="A226" s="13" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="B226" s="13" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="C226" s="14" t="s">
         <v>223</v>
       </c>
       <c r="D226" s="15" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="E226" s="16" t="s">
         <v>10</v>
@@ -21163,16 +21166,16 @@
     </row>
     <row r="227" spans="1:6">
       <c r="A227" s="13" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="B227" s="13" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="C227" s="14" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="D227" s="15" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="E227" s="16" t="s">
         <v>10</v>
@@ -21181,16 +21184,16 @@
     </row>
     <row r="228" spans="1:6">
       <c r="A228" s="13" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="B228" s="13" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="C228" s="14" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D228" s="15" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E228" s="16" t="s">
         <v>10</v>
@@ -21199,16 +21202,16 @@
     </row>
     <row r="229" spans="1:6">
       <c r="A229" s="13" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="B229" s="13" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="C229" s="14" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="D229" s="15" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="E229" s="16" t="s">
         <v>10</v>
@@ -21217,16 +21220,16 @@
     </row>
     <row r="230" spans="1:6">
       <c r="A230" s="13" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="B230" s="13" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="C230" s="14" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="D230" s="15" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="E230" s="16" t="s">
         <v>10</v>
@@ -21235,16 +21238,16 @@
     </row>
     <row r="231" spans="1:6">
       <c r="A231" s="13" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="B231" s="13" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="C231" s="14" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="D231" s="15" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="E231" s="16" t="s">
         <v>10</v>
@@ -21253,16 +21256,16 @@
     </row>
     <row r="232" spans="1:6">
       <c r="A232" s="13" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="B232" s="13" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="C232" s="14" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="D232" s="15" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="E232" s="16" t="s">
         <v>10</v>
@@ -21271,16 +21274,16 @@
     </row>
     <row r="233" spans="1:6">
       <c r="A233" s="13" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="B233" s="13" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="C233" s="14" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="D233" s="15" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="E233" s="16" t="s">
         <v>10</v>
@@ -21289,16 +21292,16 @@
     </row>
     <row r="234" spans="1:6">
       <c r="A234" s="13" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="B234" s="13" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="C234" s="14" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="D234" s="15" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="E234" s="16" t="s">
         <v>10</v>
@@ -21307,16 +21310,16 @@
     </row>
     <row r="235" spans="1:6">
       <c r="A235" s="13" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="B235" s="13" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="C235" s="14" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="D235" s="15" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="E235" s="16" t="s">
         <v>10</v>
@@ -21325,16 +21328,16 @@
     </row>
     <row r="236" spans="1:6">
       <c r="A236" s="13" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="B236" s="13" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="C236" s="14" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="D236" s="15" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="E236" s="16" t="s">
         <v>10</v>
@@ -21343,16 +21346,16 @@
     </row>
     <row r="237" spans="1:6">
       <c r="A237" s="13" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="B237" s="13" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="C237" s="14" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="D237" s="15" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="E237" s="16" t="s">
         <v>10</v>
@@ -21361,16 +21364,16 @@
     </row>
     <row r="238" spans="1:6">
       <c r="A238" s="13" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="B238" s="13" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="C238" s="14" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="D238" s="15" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="E238" s="16" t="s">
         <v>10</v>
@@ -21379,16 +21382,16 @@
     </row>
     <row r="239" spans="1:6">
       <c r="A239" s="13" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="B239" s="13" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="C239" s="14" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="D239" s="17" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="E239" s="16" t="s">
         <v>10</v>
@@ -21397,16 +21400,16 @@
     </row>
     <row r="240" spans="1:6">
       <c r="A240" s="13" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="B240" s="13" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="C240" s="14" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="D240" s="15" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="E240" s="16" t="s">
         <v>10</v>
@@ -21415,16 +21418,16 @@
     </row>
     <row r="241" spans="1:6">
       <c r="A241" s="13" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="B241" s="13" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="C241" s="14" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="D241" s="15" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="E241" s="16" t="s">
         <v>10</v>
@@ -21433,16 +21436,16 @@
     </row>
     <row r="242" spans="1:6">
       <c r="A242" s="13" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="B242" s="13" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="C242" s="14" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="D242" s="15" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="E242" s="16" t="s">
         <v>10</v>
@@ -21451,16 +21454,16 @@
     </row>
     <row r="243" spans="1:6">
       <c r="A243" s="13" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="B243" s="13" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="C243" s="14" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="D243" s="15" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="E243" s="16" t="s">
         <v>10</v>
@@ -21469,16 +21472,16 @@
     </row>
     <row r="244" spans="1:6">
       <c r="A244" s="13" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="B244" s="13" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="C244" s="14" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="D244" s="15" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="E244" s="16" t="s">
         <v>10</v>
@@ -21487,16 +21490,16 @@
     </row>
     <row r="245" spans="1:6">
       <c r="A245" s="13" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="B245" s="13" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="C245" s="14" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="D245" s="15" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="E245" s="16" t="s">
         <v>10</v>
@@ -21505,16 +21508,16 @@
     </row>
     <row r="246" spans="1:6">
       <c r="A246" s="13" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="B246" s="13" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="C246" s="14" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="D246" s="15" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="E246" s="16" t="s">
         <v>10</v>
@@ -21523,16 +21526,16 @@
     </row>
     <row r="247" spans="1:6">
       <c r="A247" s="13" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="B247" s="13" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="C247" s="14" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="D247" s="15" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="E247" s="16" t="s">
         <v>10</v>
@@ -21541,16 +21544,16 @@
     </row>
     <row r="248" spans="1:6">
       <c r="A248" s="13" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="B248" s="13" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="C248" s="14" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="D248" s="15" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="E248" s="16" t="s">
         <v>10</v>
@@ -21559,16 +21562,16 @@
     </row>
     <row r="249" spans="1:6">
       <c r="A249" s="13" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="B249" s="13" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="C249" s="14" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="D249" s="15" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="E249" s="16" t="s">
         <v>10</v>
@@ -21577,16 +21580,16 @@
     </row>
     <row r="250" spans="1:6">
       <c r="A250" s="13" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="B250" s="13" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="C250" s="14" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="D250" s="17" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="E250" s="16" t="s">
         <v>10</v>
@@ -21595,16 +21598,16 @@
     </row>
     <row r="251" spans="1:6">
       <c r="A251" s="13" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="B251" s="13" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="C251" s="14" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="D251" s="15" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="E251" s="16" t="s">
         <v>10</v>
@@ -21613,16 +21616,16 @@
     </row>
     <row r="252" spans="1:6">
       <c r="A252" s="13" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="B252" s="13" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="C252" s="14" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="D252" s="15" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="E252" s="16" t="s">
         <v>10</v>
@@ -21631,16 +21634,16 @@
     </row>
     <row r="253" spans="1:6">
       <c r="A253" s="13" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="B253" s="13" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="C253" s="14" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="D253" s="15" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="E253" s="16" t="s">
         <v>10</v>
@@ -21649,16 +21652,16 @@
     </row>
     <row r="254" spans="1:6">
       <c r="A254" s="13" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="B254" s="13" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="C254" s="14" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="D254" s="15" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="E254" s="16" t="s">
         <v>10</v>
@@ -21667,16 +21670,16 @@
     </row>
     <row r="255" spans="1:6">
       <c r="A255" s="13" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="B255" s="13" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="C255" s="14" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="D255" s="15" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="E255" s="16" t="s">
         <v>10</v>
@@ -21685,16 +21688,16 @@
     </row>
     <row r="256" spans="1:6">
       <c r="A256" s="13" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="B256" s="13" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="C256" s="14" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="D256" s="17" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="E256" s="16" t="s">
         <v>10</v>
@@ -21703,16 +21706,16 @@
     </row>
     <row r="257" spans="1:6">
       <c r="A257" s="13" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="B257" s="13" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="C257" s="14" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="D257" s="15" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="E257" s="16" t="s">
         <v>10</v>
@@ -21721,16 +21724,16 @@
     </row>
     <row r="258" spans="1:6">
       <c r="A258" s="13" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="B258" s="13" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="C258" s="14" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="D258" s="15" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="E258" s="16" t="s">
         <v>10</v>
@@ -21739,16 +21742,16 @@
     </row>
     <row r="259" spans="1:6">
       <c r="A259" s="13" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="B259" s="13" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="C259" s="14" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="D259" s="15" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="E259" s="16" t="s">
         <v>10</v>
@@ -21757,16 +21760,16 @@
     </row>
     <row r="260" spans="1:6">
       <c r="A260" s="13" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="B260" s="13" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="C260" s="14" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="D260" s="15" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="E260" s="16" t="s">
         <v>10</v>
@@ -21775,16 +21778,16 @@
     </row>
     <row r="261" spans="1:6">
       <c r="A261" s="13" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="B261" s="13" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="C261" s="14" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="D261" s="15" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="E261" s="16" t="s">
         <v>10</v>
@@ -21793,16 +21796,16 @@
     </row>
     <row r="262" spans="1:6">
       <c r="A262" s="13" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="B262" s="13" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="C262" s="14" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="D262" s="15" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="E262" s="16" t="s">
         <v>10</v>
@@ -21811,16 +21814,16 @@
     </row>
     <row r="263" spans="1:6">
       <c r="A263" s="13" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="B263" s="13" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="C263" s="14" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="D263" s="17" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="E263" s="16" t="s">
         <v>10</v>
@@ -21829,16 +21832,16 @@
     </row>
     <row r="264" spans="1:6">
       <c r="A264" s="13" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="B264" s="13" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="C264" s="14" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="D264" s="15" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="E264" s="16" t="s">
         <v>10</v>
@@ -21847,16 +21850,16 @@
     </row>
     <row r="265" spans="1:6">
       <c r="A265" s="13" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="B265" s="13" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="C265" s="14" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="D265" s="15" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="E265" s="16" t="s">
         <v>10</v>
@@ -21865,16 +21868,16 @@
     </row>
     <row r="266" spans="1:6">
       <c r="A266" s="13" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="B266" s="13" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="C266" s="14" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="D266" s="15" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="E266" s="16" t="s">
         <v>10</v>
@@ -21883,16 +21886,16 @@
     </row>
     <row r="267" spans="1:6">
       <c r="A267" s="13" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="B267" s="13" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="C267" s="14" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="D267" s="15" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="E267" s="16" t="s">
         <v>10</v>
@@ -21901,16 +21904,16 @@
     </row>
     <row r="268" spans="1:6">
       <c r="A268" s="13" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="B268" s="13" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="C268" s="14" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="D268" s="15" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="E268" s="16" t="s">
         <v>10</v>
@@ -21919,16 +21922,16 @@
     </row>
     <row r="269" spans="1:6">
       <c r="A269" s="13" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="B269" s="13" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="C269" s="14" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="D269" s="15" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="E269" s="16" t="s">
         <v>10</v>
@@ -21937,16 +21940,16 @@
     </row>
     <row r="270" spans="1:6">
       <c r="A270" s="13" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="B270" s="13" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="C270" s="14" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="D270" s="17" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="E270" s="16" t="s">
         <v>10</v>
@@ -21955,16 +21958,16 @@
     </row>
     <row r="271" spans="1:6">
       <c r="A271" s="13" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="B271" s="13" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="C271" s="14" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="D271" s="15" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="E271" s="16" t="s">
         <v>10</v>
@@ -21973,16 +21976,16 @@
     </row>
     <row r="272" spans="1:6">
       <c r="A272" s="13" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="B272" s="13" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="C272" s="14" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="D272" s="17" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="E272" s="16" t="s">
         <v>10</v>
@@ -21991,16 +21994,16 @@
     </row>
     <row r="273" spans="1:6">
       <c r="A273" s="13" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="B273" s="13" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="C273" s="14" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="D273" s="17" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="E273" s="16" t="s">
         <v>10</v>
@@ -22009,16 +22012,16 @@
     </row>
     <row r="274" spans="1:6">
       <c r="A274" s="13" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="B274" s="13" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="C274" s="14" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="D274" s="15" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="E274" s="16" t="s">
         <v>10</v>
@@ -22027,16 +22030,16 @@
     </row>
     <row r="275" spans="1:6">
       <c r="A275" s="13" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="B275" s="13" t="s">
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="C275" s="14" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="D275" s="15" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="E275" s="16" t="s">
         <v>10</v>
@@ -22045,16 +22048,16 @@
     </row>
     <row r="276" spans="1:6">
       <c r="A276" s="13" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="B276" s="13" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="C276" s="14" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="D276" s="15" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="E276" s="16" t="s">
         <v>10</v>
@@ -22063,16 +22066,16 @@
     </row>
     <row r="277" spans="1:6">
       <c r="A277" s="13" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="B277" s="13" t="s">
-        <v>1065</v>
+        <v>1066</v>
       </c>
       <c r="C277" s="14" t="s">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="D277" s="17" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="E277" s="16" t="s">
         <v>10</v>
@@ -22081,16 +22084,16 @@
     </row>
     <row r="278" spans="1:6">
       <c r="A278" s="13" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="B278" s="13" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="C278" s="14" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="D278" s="15" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="E278" s="16" t="s">
         <v>10</v>
@@ -22099,16 +22102,16 @@
     </row>
     <row r="279" spans="1:6">
       <c r="A279" s="13" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="B279" s="13" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="C279" s="14" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="D279" s="15" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="E279" s="16" t="s">
         <v>10</v>
@@ -22117,16 +22120,16 @@
     </row>
     <row r="280" spans="1:6">
       <c r="A280" s="13" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="B280" s="13" t="s">
-        <v>1077</v>
+        <v>1078</v>
       </c>
       <c r="C280" s="14" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
       <c r="D280" s="15" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="E280" s="16" t="s">
         <v>10</v>
@@ -22135,16 +22138,16 @@
     </row>
     <row r="281" spans="1:6">
       <c r="A281" s="13" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="B281" s="13" t="s">
-        <v>1081</v>
+        <v>1082</v>
       </c>
       <c r="C281" s="14" t="s">
-        <v>1082</v>
+        <v>1083</v>
       </c>
       <c r="D281" s="15" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="E281" s="16" t="s">
         <v>10</v>
@@ -22153,16 +22156,16 @@
     </row>
     <row r="282" spans="1:6">
       <c r="A282" s="13" t="s">
-        <v>1084</v>
+        <v>1085</v>
       </c>
       <c r="B282" s="13" t="s">
-        <v>1085</v>
+        <v>1086</v>
       </c>
       <c r="C282" s="14" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
       <c r="D282" s="15" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="E282" s="16" t="s">
         <v>10</v>
@@ -22171,16 +22174,16 @@
     </row>
     <row r="283" spans="1:6">
       <c r="A283" s="13" t="s">
-        <v>1088</v>
+        <v>1089</v>
       </c>
       <c r="B283" s="13" t="s">
-        <v>1089</v>
+        <v>1090</v>
       </c>
       <c r="C283" s="14" t="s">
-        <v>1090</v>
+        <v>1091</v>
       </c>
       <c r="D283" s="15" t="s">
-        <v>1091</v>
+        <v>1092</v>
       </c>
       <c r="E283" s="16" t="s">
         <v>10</v>
@@ -22189,16 +22192,16 @@
     </row>
     <row r="284" spans="1:6">
       <c r="A284" s="13" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="B284" s="13" t="s">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="C284" s="14" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="D284" s="17" t="s">
-        <v>1095</v>
+        <v>1096</v>
       </c>
       <c r="E284" s="16" t="s">
         <v>10</v>
@@ -22207,16 +22210,16 @@
     </row>
     <row r="285" spans="1:6">
       <c r="A285" s="13" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="B285" s="13" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
       <c r="C285" s="14" t="s">
-        <v>1098</v>
+        <v>1099</v>
       </c>
       <c r="D285" s="15" t="s">
-        <v>1099</v>
+        <v>1100</v>
       </c>
       <c r="E285" s="16" t="s">
         <v>10</v>
@@ -22225,16 +22228,16 @@
     </row>
     <row r="286" spans="1:6">
       <c r="A286" s="13" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="B286" s="13" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="C286" s="14" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="D286" s="17" t="s">
-        <v>1103</v>
+        <v>1104</v>
       </c>
       <c r="E286" s="16" t="s">
         <v>10</v>
@@ -22243,16 +22246,16 @@
     </row>
     <row r="287" spans="1:6">
       <c r="A287" s="13" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="B287" s="13" t="s">
-        <v>1105</v>
+        <v>1106</v>
       </c>
       <c r="C287" s="14" t="s">
-        <v>1106</v>
+        <v>1107</v>
       </c>
       <c r="D287" s="15" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="E287" s="16" t="s">
         <v>10</v>
@@ -22261,16 +22264,16 @@
     </row>
     <row r="288" spans="1:6">
       <c r="A288" s="13" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="B288" s="13" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="C288" s="14" t="s">
-        <v>1110</v>
+        <v>1111</v>
       </c>
       <c r="D288" s="15" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
       <c r="E288" s="16" t="s">
         <v>10</v>
@@ -22279,16 +22282,16 @@
     </row>
     <row r="289" spans="1:6">
       <c r="A289" s="13" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
       <c r="B289" s="13" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="C289" s="14" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
       <c r="D289" s="15" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
       <c r="E289" s="16" t="s">
         <v>10</v>
@@ -22297,16 +22300,16 @@
     </row>
     <row r="290" spans="1:6">
       <c r="A290" s="13" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="B290" s="13" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="C290" s="14" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
       <c r="D290" s="15" t="s">
-        <v>1119</v>
+        <v>1120</v>
       </c>
       <c r="E290" s="16" t="s">
         <v>10</v>
@@ -22315,16 +22318,16 @@
     </row>
     <row r="291" spans="1:6">
       <c r="A291" s="13" t="s">
-        <v>1120</v>
+        <v>1121</v>
       </c>
       <c r="B291" s="13" t="s">
-        <v>1121</v>
+        <v>1122</v>
       </c>
       <c r="C291" s="14" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
       <c r="D291" s="15" t="s">
-        <v>1123</v>
+        <v>1124</v>
       </c>
       <c r="E291" s="16" t="s">
         <v>10</v>
@@ -22333,16 +22336,16 @@
     </row>
     <row r="292" spans="1:6">
       <c r="A292" s="13" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="B292" s="13" t="s">
-        <v>1125</v>
+        <v>1126</v>
       </c>
       <c r="C292" s="14" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
       <c r="D292" s="15" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
       <c r="E292" s="16" t="s">
         <v>10</v>
@@ -22351,16 +22354,16 @@
     </row>
     <row r="293" spans="1:6">
       <c r="A293" s="13" t="s">
-        <v>1128</v>
+        <v>1129</v>
       </c>
       <c r="B293" s="13" t="s">
-        <v>1129</v>
+        <v>1130</v>
       </c>
       <c r="C293" s="14" t="s">
-        <v>1130</v>
+        <v>1131</v>
       </c>
       <c r="D293" s="15" t="s">
-        <v>1131</v>
+        <v>1132</v>
       </c>
       <c r="E293" s="16" t="s">
         <v>10</v>
@@ -22369,16 +22372,16 @@
     </row>
     <row r="294" spans="1:6">
       <c r="A294" s="13" t="s">
-        <v>1132</v>
+        <v>1133</v>
       </c>
       <c r="B294" s="13" t="s">
-        <v>1133</v>
+        <v>1134</v>
       </c>
       <c r="C294" s="14" t="s">
-        <v>1134</v>
+        <v>1135</v>
       </c>
       <c r="D294" s="15" t="s">
-        <v>1135</v>
+        <v>1136</v>
       </c>
       <c r="E294" s="16" t="s">
         <v>10</v>
@@ -22387,16 +22390,16 @@
     </row>
     <row r="295" spans="1:6">
       <c r="A295" s="13" t="s">
-        <v>1136</v>
+        <v>1137</v>
       </c>
       <c r="B295" s="13" t="s">
-        <v>1137</v>
+        <v>1138</v>
       </c>
       <c r="C295" s="14" t="s">
-        <v>1138</v>
+        <v>1139</v>
       </c>
       <c r="D295" s="15" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="E295" s="16" t="s">
         <v>10</v>
@@ -22405,16 +22408,16 @@
     </row>
     <row r="296" spans="1:6">
       <c r="A296" s="13" t="s">
-        <v>1140</v>
+        <v>1141</v>
       </c>
       <c r="B296" s="13" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
       <c r="C296" s="14" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
       <c r="D296" s="15" t="s">
-        <v>1143</v>
+        <v>1144</v>
       </c>
       <c r="E296" s="16" t="s">
         <v>10</v>
@@ -22423,16 +22426,16 @@
     </row>
     <row r="297" spans="1:6">
       <c r="A297" s="13" t="s">
-        <v>1144</v>
+        <v>1145</v>
       </c>
       <c r="B297" s="13" t="s">
-        <v>1145</v>
+        <v>1146</v>
       </c>
       <c r="C297" s="14" t="s">
-        <v>1146</v>
+        <v>1147</v>
       </c>
       <c r="D297" s="15" t="s">
-        <v>1147</v>
+        <v>1148</v>
       </c>
       <c r="E297" s="16" t="s">
         <v>10</v>
@@ -22441,16 +22444,16 @@
     </row>
     <row r="298" spans="1:6">
       <c r="A298" s="13" t="s">
-        <v>1148</v>
+        <v>1149</v>
       </c>
       <c r="B298" s="13" t="s">
-        <v>1149</v>
+        <v>1150</v>
       </c>
       <c r="C298" s="14" t="s">
-        <v>1150</v>
+        <v>1151</v>
       </c>
       <c r="D298" s="17" t="s">
-        <v>1151</v>
+        <v>1152</v>
       </c>
       <c r="E298" s="16" t="s">
         <v>10</v>
@@ -22459,16 +22462,16 @@
     </row>
     <row r="299" spans="1:6">
       <c r="A299" s="13" t="s">
-        <v>1152</v>
+        <v>1153</v>
       </c>
       <c r="B299" s="13" t="s">
-        <v>1153</v>
+        <v>1154</v>
       </c>
       <c r="C299" s="14" t="s">
-        <v>1154</v>
+        <v>1155</v>
       </c>
       <c r="D299" s="17" t="s">
-        <v>1155</v>
+        <v>1156</v>
       </c>
       <c r="E299" s="16" t="s">
         <v>10</v>
@@ -22477,16 +22480,16 @@
     </row>
     <row r="300" spans="1:6">
       <c r="A300" s="13" t="s">
-        <v>1156</v>
+        <v>1157</v>
       </c>
       <c r="B300" s="13" t="s">
-        <v>1157</v>
+        <v>1158</v>
       </c>
       <c r="C300" s="14" t="s">
-        <v>1158</v>
+        <v>1159</v>
       </c>
       <c r="D300" s="15" t="s">
-        <v>1159</v>
+        <v>1160</v>
       </c>
       <c r="E300" s="16" t="s">
         <v>10</v>
@@ -22495,16 +22498,16 @@
     </row>
     <row r="301" spans="1:6">
       <c r="A301" s="13" t="s">
-        <v>1160</v>
+        <v>1161</v>
       </c>
       <c r="B301" s="13" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="C301" s="14" t="s">
-        <v>1161</v>
+        <v>1162</v>
       </c>
       <c r="D301" s="15" t="s">
-        <v>1162</v>
+        <v>1163</v>
       </c>
       <c r="E301" s="16" t="s">
         <v>10</v>
@@ -22513,16 +22516,16 @@
     </row>
     <row r="302" spans="1:6">
       <c r="A302" s="13" t="s">
-        <v>1163</v>
+        <v>1164</v>
       </c>
       <c r="B302" s="13" t="s">
-        <v>1077</v>
+        <v>1078</v>
       </c>
       <c r="C302" s="14" t="s">
-        <v>1164</v>
+        <v>1165</v>
       </c>
       <c r="D302" s="15" t="s">
-        <v>1165</v>
+        <v>1166</v>
       </c>
       <c r="E302" s="16" t="s">
         <v>10</v>
@@ -22531,16 +22534,16 @@
     </row>
     <row r="303" spans="1:6">
       <c r="A303" s="13" t="s">
-        <v>1166</v>
+        <v>1167</v>
       </c>
       <c r="B303" s="13" t="s">
-        <v>1081</v>
+        <v>1082</v>
       </c>
       <c r="C303" s="14" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
       <c r="D303" s="15" t="s">
-        <v>1168</v>
+        <v>1169</v>
       </c>
       <c r="E303" s="16" t="s">
         <v>10</v>
@@ -22549,16 +22552,16 @@
     </row>
     <row r="304" spans="1:6">
       <c r="A304" s="13" t="s">
-        <v>1169</v>
+        <v>1170</v>
       </c>
       <c r="B304" s="13" t="s">
-        <v>1085</v>
+        <v>1086</v>
       </c>
       <c r="C304" s="14" t="s">
-        <v>1170</v>
+        <v>1171</v>
       </c>
       <c r="D304" s="15" t="s">
-        <v>1171</v>
+        <v>1172</v>
       </c>
       <c r="E304" s="16" t="s">
         <v>10</v>
@@ -22567,16 +22570,16 @@
     </row>
     <row r="305" spans="1:6">
       <c r="A305" s="13" t="s">
-        <v>1172</v>
+        <v>1173</v>
       </c>
       <c r="B305" s="13" t="s">
-        <v>1089</v>
+        <v>1090</v>
       </c>
       <c r="C305" s="14" t="s">
-        <v>1173</v>
+        <v>1174</v>
       </c>
       <c r="D305" s="17" t="s">
-        <v>1174</v>
+        <v>1175</v>
       </c>
       <c r="E305" s="16" t="s">
         <v>10</v>
@@ -22585,16 +22588,16 @@
     </row>
     <row r="306" spans="1:6">
       <c r="A306" s="13" t="s">
-        <v>1175</v>
+        <v>1176</v>
       </c>
       <c r="B306" s="13" t="s">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="C306" s="14" t="s">
-        <v>1176</v>
+        <v>1177</v>
       </c>
       <c r="D306" s="17" t="s">
-        <v>1177</v>
+        <v>1178</v>
       </c>
       <c r="E306" s="16" t="s">
         <v>10</v>
@@ -22603,16 +22606,16 @@
     </row>
     <row r="307" spans="1:6">
       <c r="A307" s="13" t="s">
-        <v>1178</v>
+        <v>1179</v>
       </c>
       <c r="B307" s="13" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
       <c r="C307" s="14" t="s">
-        <v>1179</v>
+        <v>1180</v>
       </c>
       <c r="D307" s="15" t="s">
-        <v>1180</v>
+        <v>1181</v>
       </c>
       <c r="E307" s="16" t="s">
         <v>10</v>
@@ -22621,16 +22624,16 @@
     </row>
     <row r="308" spans="1:6">
       <c r="A308" s="13" t="s">
-        <v>1181</v>
+        <v>1182</v>
       </c>
       <c r="B308" s="13" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="C308" s="14" t="s">
-        <v>1182</v>
+        <v>1183</v>
       </c>
       <c r="D308" s="17" t="s">
-        <v>1183</v>
+        <v>1184</v>
       </c>
       <c r="E308" s="16" t="s">
         <v>10</v>
@@ -22639,16 +22642,16 @@
     </row>
     <row r="309" spans="1:6">
       <c r="A309" s="13" t="s">
-        <v>1184</v>
+        <v>1185</v>
       </c>
       <c r="B309" s="13" t="s">
-        <v>1105</v>
+        <v>1106</v>
       </c>
       <c r="C309" s="14" t="s">
-        <v>1185</v>
+        <v>1186</v>
       </c>
       <c r="D309" s="15" t="s">
-        <v>1186</v>
+        <v>1187</v>
       </c>
       <c r="E309" s="16" t="s">
         <v>10</v>
@@ -22657,16 +22660,16 @@
     </row>
     <row r="310" spans="1:6">
       <c r="A310" s="13" t="s">
-        <v>1187</v>
+        <v>1188</v>
       </c>
       <c r="B310" s="13" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="C310" s="14" t="s">
-        <v>1188</v>
+        <v>1189</v>
       </c>
       <c r="D310" s="17" t="s">
-        <v>1189</v>
+        <v>1190</v>
       </c>
       <c r="E310" s="16" t="s">
         <v>10</v>
@@ -22675,16 +22678,16 @@
     </row>
     <row r="311" spans="1:6">
       <c r="A311" s="13" t="s">
-        <v>1190</v>
+        <v>1191</v>
       </c>
       <c r="B311" s="13" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="C311" s="14" t="s">
-        <v>1191</v>
+        <v>1192</v>
       </c>
       <c r="D311" s="15" t="s">
-        <v>1192</v>
+        <v>1193</v>
       </c>
       <c r="E311" s="16" t="s">
         <v>10</v>
@@ -22693,16 +22696,16 @@
     </row>
     <row r="312" spans="1:6">
       <c r="A312" s="13" t="s">
-        <v>1193</v>
+        <v>1194</v>
       </c>
       <c r="B312" s="13" t="s">
-        <v>1121</v>
+        <v>1122</v>
       </c>
       <c r="C312" s="14" t="s">
-        <v>1194</v>
+        <v>1195</v>
       </c>
       <c r="D312" s="15" t="s">
-        <v>1195</v>
+        <v>1196</v>
       </c>
       <c r="E312" s="16" t="s">
         <v>10</v>
@@ -22711,16 +22714,16 @@
     </row>
     <row r="313" spans="1:6">
       <c r="A313" s="13" t="s">
-        <v>1196</v>
+        <v>1197</v>
       </c>
       <c r="B313" s="13" t="s">
-        <v>1125</v>
+        <v>1126</v>
       </c>
       <c r="C313" s="14" t="s">
-        <v>1197</v>
+        <v>1198</v>
       </c>
       <c r="D313" s="17" t="s">
-        <v>1198</v>
+        <v>1199</v>
       </c>
       <c r="E313" s="16" t="s">
         <v>10</v>
@@ -22729,16 +22732,16 @@
     </row>
     <row r="314" spans="1:6">
       <c r="A314" s="13" t="s">
-        <v>1199</v>
+        <v>1200</v>
       </c>
       <c r="B314" s="13" t="s">
-        <v>1200</v>
+        <v>1201</v>
       </c>
       <c r="C314" s="14" t="s">
-        <v>1201</v>
+        <v>1202</v>
       </c>
       <c r="D314" s="17" t="s">
-        <v>1202</v>
+        <v>1203</v>
       </c>
       <c r="E314" s="16" t="s">
         <v>10</v>
@@ -22747,16 +22750,16 @@
     </row>
     <row r="315" spans="1:6">
       <c r="A315" s="13" t="s">
-        <v>1203</v>
+        <v>1204</v>
       </c>
       <c r="B315" s="13" t="s">
-        <v>1129</v>
+        <v>1130</v>
       </c>
       <c r="C315" s="14" t="s">
-        <v>1204</v>
+        <v>1205</v>
       </c>
       <c r="D315" s="15" t="s">
-        <v>1205</v>
+        <v>1206</v>
       </c>
       <c r="E315" s="16" t="s">
         <v>10</v>
@@ -22765,16 +22768,16 @@
     </row>
     <row r="316" spans="1:6">
       <c r="A316" s="13" t="s">
-        <v>1206</v>
+        <v>1207</v>
       </c>
       <c r="B316" s="13" t="s">
-        <v>1133</v>
+        <v>1134</v>
       </c>
       <c r="C316" s="14" t="s">
-        <v>1207</v>
+        <v>1208</v>
       </c>
       <c r="D316" s="15" t="s">
-        <v>1208</v>
+        <v>1209</v>
       </c>
       <c r="E316" s="16" t="s">
         <v>10</v>
@@ -22783,16 +22786,16 @@
     </row>
     <row r="317" spans="1:6">
       <c r="A317" s="13" t="s">
-        <v>1209</v>
+        <v>1210</v>
       </c>
       <c r="B317" s="13" t="s">
-        <v>1137</v>
+        <v>1138</v>
       </c>
       <c r="C317" s="14" t="s">
-        <v>1210</v>
+        <v>1211</v>
       </c>
       <c r="D317" s="15" t="s">
-        <v>1211</v>
+        <v>1212</v>
       </c>
       <c r="E317" s="16" t="s">
         <v>10</v>
@@ -22801,16 +22804,16 @@
     </row>
     <row r="318" spans="1:6">
       <c r="A318" s="13" t="s">
-        <v>1212</v>
+        <v>1213</v>
       </c>
       <c r="B318" s="13" t="s">
-        <v>1213</v>
+        <v>1214</v>
       </c>
       <c r="C318" s="14" t="s">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="D318" s="15" t="s">
-        <v>1215</v>
+        <v>1216</v>
       </c>
       <c r="E318" s="16" t="s">
         <v>10</v>
@@ -22819,16 +22822,16 @@
     </row>
     <row r="319" spans="1:6">
       <c r="A319" s="13" t="s">
-        <v>1216</v>
+        <v>1217</v>
       </c>
       <c r="B319" s="13" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
       <c r="C319" s="14" t="s">
-        <v>1217</v>
+        <v>1218</v>
       </c>
       <c r="D319" s="15" t="s">
-        <v>1218</v>
+        <v>1219</v>
       </c>
       <c r="E319" s="16" t="s">
         <v>10</v>
@@ -22837,16 +22840,16 @@
     </row>
     <row r="320" spans="1:6">
       <c r="A320" s="13" t="s">
-        <v>1219</v>
+        <v>1220</v>
       </c>
       <c r="B320" s="13" t="s">
-        <v>1145</v>
+        <v>1146</v>
       </c>
       <c r="C320" s="14" t="s">
-        <v>1220</v>
+        <v>1221</v>
       </c>
       <c r="D320" s="17" t="s">
-        <v>1221</v>
+        <v>1222</v>
       </c>
       <c r="E320" s="16" t="s">
         <v>10</v>
@@ -22855,16 +22858,16 @@
     </row>
     <row r="321" spans="1:6">
       <c r="A321" s="13" t="s">
-        <v>1222</v>
+        <v>1223</v>
       </c>
       <c r="B321" s="13" t="s">
-        <v>1223</v>
+        <v>1224</v>
       </c>
       <c r="C321" s="14" t="s">
-        <v>1224</v>
+        <v>1225</v>
       </c>
       <c r="D321" s="15" t="s">
-        <v>1225</v>
+        <v>1226</v>
       </c>
       <c r="E321" s="16" t="s">
         <v>10</v>
@@ -22873,16 +22876,16 @@
     </row>
     <row r="322" spans="1:6">
       <c r="A322" s="13" t="s">
-        <v>1226</v>
+        <v>1227</v>
       </c>
       <c r="B322" s="13" t="s">
-        <v>1227</v>
+        <v>1228</v>
       </c>
       <c r="C322" s="14" t="s">
-        <v>1228</v>
+        <v>1229</v>
       </c>
       <c r="D322" s="15" t="s">
-        <v>1229</v>
+        <v>1230</v>
       </c>
       <c r="E322" s="16" t="s">
         <v>10</v>
@@ -22891,16 +22894,16 @@
     </row>
     <row r="323" spans="1:6">
       <c r="A323" s="13" t="s">
-        <v>1230</v>
+        <v>1231</v>
       </c>
       <c r="B323" s="13" t="s">
-        <v>1231</v>
+        <v>1232</v>
       </c>
       <c r="C323" s="14" t="s">
-        <v>1232</v>
+        <v>1233</v>
       </c>
       <c r="D323" s="15" t="s">
-        <v>1233</v>
+        <v>1234</v>
       </c>
       <c r="E323" s="16" t="s">
         <v>10</v>
@@ -22909,16 +22912,16 @@
     </row>
     <row r="324" spans="1:6">
       <c r="A324" s="13" t="s">
-        <v>1234</v>
+        <v>1235</v>
       </c>
       <c r="B324" s="13" t="s">
-        <v>1235</v>
+        <v>1236</v>
       </c>
       <c r="C324" s="14" t="s">
-        <v>1236</v>
+        <v>1237</v>
       </c>
       <c r="D324" s="17" t="s">
-        <v>1237</v>
+        <v>1238</v>
       </c>
       <c r="E324" s="16" t="s">
         <v>10</v>
@@ -22927,16 +22930,16 @@
     </row>
     <row r="325" spans="1:6">
       <c r="A325" s="13" t="s">
-        <v>1238</v>
+        <v>1239</v>
       </c>
       <c r="B325" s="13" t="s">
-        <v>1239</v>
+        <v>1240</v>
       </c>
       <c r="C325" s="14" t="s">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="D325" s="17" t="s">
-        <v>1241</v>
+        <v>1242</v>
       </c>
       <c r="E325" s="16" t="s">
         <v>10</v>
@@ -22945,16 +22948,16 @@
     </row>
     <row r="326" spans="1:6">
       <c r="A326" s="13" t="s">
-        <v>1242</v>
+        <v>1243</v>
       </c>
       <c r="B326" s="13" t="s">
-        <v>1243</v>
+        <v>1244</v>
       </c>
       <c r="C326" s="14" t="s">
-        <v>1244</v>
+        <v>1245</v>
       </c>
       <c r="D326" s="17" t="s">
-        <v>1245</v>
+        <v>1246</v>
       </c>
       <c r="E326" s="16" t="s">
         <v>10</v>
@@ -22963,16 +22966,16 @@
     </row>
     <row r="327" spans="1:6">
       <c r="A327" s="13" t="s">
-        <v>1246</v>
+        <v>1247</v>
       </c>
       <c r="B327" s="13" t="s">
-        <v>1247</v>
+        <v>1248</v>
       </c>
       <c r="C327" s="14" t="s">
-        <v>1248</v>
+        <v>1249</v>
       </c>
       <c r="D327" s="15" t="s">
-        <v>1249</v>
+        <v>1250</v>
       </c>
       <c r="E327" s="16" t="s">
         <v>10</v>
@@ -22981,16 +22984,16 @@
     </row>
     <row r="328" spans="1:6">
       <c r="A328" s="13" t="s">
-        <v>1250</v>
+        <v>1251</v>
       </c>
       <c r="B328" s="13" t="s">
-        <v>1251</v>
+        <v>1252</v>
       </c>
       <c r="C328" s="14" t="s">
-        <v>1252</v>
+        <v>1253</v>
       </c>
       <c r="D328" s="15" t="s">
-        <v>1253</v>
+        <v>1254</v>
       </c>
       <c r="E328" s="16" t="s">
         <v>10</v>
@@ -22999,16 +23002,16 @@
     </row>
     <row r="329" spans="1:6">
       <c r="A329" s="13" t="s">
-        <v>1254</v>
+        <v>1255</v>
       </c>
       <c r="B329" s="13" t="s">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="C329" s="14" t="s">
-        <v>1256</v>
+        <v>1257</v>
       </c>
       <c r="D329" s="15" t="s">
-        <v>1257</v>
+        <v>1258</v>
       </c>
       <c r="E329" s="16" t="s">
         <v>10</v>
@@ -23017,16 +23020,16 @@
     </row>
     <row r="330" spans="1:6">
       <c r="A330" s="13" t="s">
-        <v>1258</v>
+        <v>1259</v>
       </c>
       <c r="B330" s="13" t="s">
-        <v>1259</v>
+        <v>1260</v>
       </c>
       <c r="C330" s="14" t="s">
-        <v>1260</v>
+        <v>1261</v>
       </c>
       <c r="D330" s="15" t="s">
-        <v>1261</v>
+        <v>1262</v>
       </c>
       <c r="E330" s="16" t="s">
         <v>10</v>
@@ -23035,16 +23038,16 @@
     </row>
     <row r="331" spans="1:6">
       <c r="A331" s="13" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
       <c r="B331" s="13" t="s">
-        <v>1263</v>
+        <v>1264</v>
       </c>
       <c r="C331" s="14" t="s">
-        <v>1264</v>
+        <v>1265</v>
       </c>
       <c r="D331" s="15" t="s">
-        <v>1265</v>
+        <v>1266</v>
       </c>
       <c r="E331" s="16" t="s">
         <v>10</v>
@@ -23053,16 +23056,16 @@
     </row>
     <row r="332" spans="1:6">
       <c r="A332" s="13" t="s">
-        <v>1266</v>
+        <v>1267</v>
       </c>
       <c r="B332" s="13" t="s">
-        <v>1267</v>
+        <v>1268</v>
       </c>
       <c r="C332" s="14" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="D332" s="15" t="s">
-        <v>1269</v>
+        <v>1270</v>
       </c>
       <c r="E332" s="16" t="s">
         <v>10</v>
@@ -23071,16 +23074,16 @@
     </row>
     <row r="333" spans="1:6">
       <c r="A333" s="13" t="s">
-        <v>1270</v>
+        <v>1271</v>
       </c>
       <c r="B333" s="13" t="s">
-        <v>1271</v>
+        <v>1272</v>
       </c>
       <c r="C333" s="14" t="s">
-        <v>1272</v>
+        <v>1273</v>
       </c>
       <c r="D333" s="15" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
       <c r="E333" s="16" t="s">
         <v>10</v>
@@ -23089,16 +23092,16 @@
     </row>
     <row r="334" spans="1:6">
       <c r="A334" s="13" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
       <c r="B334" s="13" t="s">
-        <v>1275</v>
+        <v>1276</v>
       </c>
       <c r="C334" s="14" t="s">
-        <v>1276</v>
+        <v>1277</v>
       </c>
       <c r="D334" s="15" t="s">
-        <v>1277</v>
+        <v>1278</v>
       </c>
       <c r="E334" s="16" t="s">
         <v>10</v>
@@ -23107,16 +23110,16 @@
     </row>
     <row r="335" spans="1:6">
       <c r="A335" s="13" t="s">
-        <v>1278</v>
+        <v>1279</v>
       </c>
       <c r="B335" s="13" t="s">
-        <v>1279</v>
+        <v>1280</v>
       </c>
       <c r="C335" s="14" t="s">
-        <v>1280</v>
+        <v>1281</v>
       </c>
       <c r="D335" s="17" t="s">
-        <v>1281</v>
+        <v>1282</v>
       </c>
       <c r="E335" s="16" t="s">
         <v>10</v>
@@ -23125,16 +23128,16 @@
     </row>
     <row r="336" spans="1:6">
       <c r="A336" s="13" t="s">
-        <v>1282</v>
+        <v>1283</v>
       </c>
       <c r="B336" s="13" t="s">
-        <v>1283</v>
+        <v>1284</v>
       </c>
       <c r="C336" s="14" t="s">
-        <v>1284</v>
+        <v>1285</v>
       </c>
       <c r="D336" s="17" t="s">
-        <v>1285</v>
+        <v>1286</v>
       </c>
       <c r="E336" s="16" t="s">
         <v>10</v>
@@ -23143,16 +23146,16 @@
     </row>
     <row r="337" spans="1:6">
       <c r="A337" s="13" t="s">
-        <v>1286</v>
+        <v>1287</v>
       </c>
       <c r="B337" s="13" t="s">
-        <v>1287</v>
+        <v>1288</v>
       </c>
       <c r="C337" s="14" t="s">
-        <v>1288</v>
+        <v>1289</v>
       </c>
       <c r="D337" s="17" t="s">
-        <v>1289</v>
+        <v>1290</v>
       </c>
       <c r="E337" s="16" t="s">
         <v>10</v>
@@ -23161,16 +23164,16 @@
     </row>
     <row r="338" spans="1:6">
       <c r="A338" s="13" t="s">
-        <v>1290</v>
+        <v>1291</v>
       </c>
       <c r="B338" s="13" t="s">
-        <v>1291</v>
+        <v>1292</v>
       </c>
       <c r="C338" s="14" t="s">
-        <v>1292</v>
+        <v>1293</v>
       </c>
       <c r="D338" s="15" t="s">
-        <v>1293</v>
+        <v>1294</v>
       </c>
       <c r="E338" s="16" t="s">
         <v>10</v>
@@ -23179,16 +23182,16 @@
     </row>
     <row r="339" spans="1:6">
       <c r="A339" s="13" t="s">
-        <v>1294</v>
+        <v>1295</v>
       </c>
       <c r="B339" s="13" t="s">
-        <v>1295</v>
+        <v>1296</v>
       </c>
       <c r="C339" s="14" t="s">
-        <v>1296</v>
+        <v>1297</v>
       </c>
       <c r="D339" s="15" t="s">
-        <v>1297</v>
+        <v>1298</v>
       </c>
       <c r="E339" s="16" t="s">
         <v>10</v>
@@ -23197,16 +23200,16 @@
     </row>
     <row r="340" spans="1:6">
       <c r="A340" s="13" t="s">
-        <v>1298</v>
+        <v>1299</v>
       </c>
       <c r="B340" s="13" t="s">
-        <v>1299</v>
+        <v>1300</v>
       </c>
       <c r="C340" s="14" t="s">
-        <v>1300</v>
+        <v>1301</v>
       </c>
       <c r="D340" s="15" t="s">
-        <v>1301</v>
+        <v>1302</v>
       </c>
       <c r="E340" s="16" t="s">
         <v>10</v>
@@ -23215,16 +23218,16 @@
     </row>
     <row r="341" spans="1:6">
       <c r="A341" s="13" t="s">
-        <v>1302</v>
+        <v>1303</v>
       </c>
       <c r="B341" s="13" t="s">
-        <v>1303</v>
+        <v>1304</v>
       </c>
       <c r="C341" s="14" t="s">
-        <v>1304</v>
+        <v>1305</v>
       </c>
       <c r="D341" s="15" t="s">
-        <v>1305</v>
+        <v>1306</v>
       </c>
       <c r="E341" s="16" t="s">
         <v>10</v>
@@ -23233,16 +23236,16 @@
     </row>
     <row r="342" spans="1:6">
       <c r="A342" s="13" t="s">
-        <v>1306</v>
+        <v>1307</v>
       </c>
       <c r="B342" s="13" t="s">
-        <v>1307</v>
+        <v>1308</v>
       </c>
       <c r="C342" s="14" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
       <c r="D342" s="15" t="s">
-        <v>1309</v>
+        <v>1310</v>
       </c>
       <c r="E342" s="16" t="s">
         <v>10</v>
@@ -23251,16 +23254,16 @@
     </row>
     <row r="343" spans="1:6">
       <c r="A343" s="13" t="s">
-        <v>1310</v>
+        <v>1311</v>
       </c>
       <c r="B343" s="13" t="s">
-        <v>1311</v>
+        <v>1312</v>
       </c>
       <c r="C343" s="14" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="D343" s="15" t="s">
-        <v>1313</v>
+        <v>1314</v>
       </c>
       <c r="E343" s="16" t="s">
         <v>10</v>
@@ -23269,16 +23272,16 @@
     </row>
     <row r="344" spans="1:6">
       <c r="A344" s="13" t="s">
-        <v>1314</v>
+        <v>1315</v>
       </c>
       <c r="B344" s="13" t="s">
-        <v>1315</v>
+        <v>1316</v>
       </c>
       <c r="C344" s="14" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
       <c r="D344" s="15" t="s">
-        <v>1317</v>
+        <v>1318</v>
       </c>
       <c r="E344" s="16" t="s">
         <v>10</v>
@@ -23287,16 +23290,16 @@
     </row>
     <row r="345" spans="1:6">
       <c r="A345" s="13" t="s">
-        <v>1318</v>
+        <v>1319</v>
       </c>
       <c r="B345" s="13" t="s">
-        <v>1319</v>
+        <v>1320</v>
       </c>
       <c r="C345" s="14" t="s">
-        <v>1320</v>
+        <v>1321</v>
       </c>
       <c r="D345" s="15" t="s">
-        <v>1321</v>
+        <v>1322</v>
       </c>
       <c r="E345" s="16" t="s">
         <v>10</v>
@@ -23305,16 +23308,16 @@
     </row>
     <row r="346" spans="1:6">
       <c r="A346" s="13" t="s">
-        <v>1322</v>
+        <v>1323</v>
       </c>
       <c r="B346" s="13" t="s">
-        <v>1323</v>
+        <v>1324</v>
       </c>
       <c r="C346" s="14" t="s">
-        <v>1324</v>
+        <v>1325</v>
       </c>
       <c r="D346" s="17" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
       <c r="E346" s="16" t="s">
         <v>10</v>
@@ -23323,16 +23326,16 @@
     </row>
     <row r="347" spans="1:6">
       <c r="A347" s="13" t="s">
-        <v>1326</v>
+        <v>1327</v>
       </c>
       <c r="B347" s="13" t="s">
-        <v>1327</v>
+        <v>1328</v>
       </c>
       <c r="C347" s="14" t="s">
-        <v>1328</v>
+        <v>1329</v>
       </c>
       <c r="D347" s="15" t="s">
-        <v>1329</v>
+        <v>1330</v>
       </c>
       <c r="E347" s="16" t="s">
         <v>10</v>
@@ -23341,16 +23344,16 @@
     </row>
     <row r="348" spans="1:6">
       <c r="A348" s="13" t="s">
-        <v>1330</v>
+        <v>1331</v>
       </c>
       <c r="B348" s="13" t="s">
-        <v>1331</v>
+        <v>1332</v>
       </c>
       <c r="C348" s="14" t="s">
-        <v>1332</v>
+        <v>1333</v>
       </c>
       <c r="D348" s="15" t="s">
-        <v>1333</v>
+        <v>1334</v>
       </c>
       <c r="E348" s="16" t="s">
         <v>10</v>
@@ -23359,16 +23362,16 @@
     </row>
     <row r="349" spans="1:6">
       <c r="A349" s="13" t="s">
-        <v>1334</v>
+        <v>1335</v>
       </c>
       <c r="B349" s="13" t="s">
-        <v>1335</v>
+        <v>1336</v>
       </c>
       <c r="C349" s="14" t="s">
-        <v>1336</v>
+        <v>1337</v>
       </c>
       <c r="D349" s="15" t="s">
-        <v>1337</v>
+        <v>1338</v>
       </c>
       <c r="E349" s="16" t="s">
         <v>10</v>
@@ -23377,16 +23380,16 @@
     </row>
     <row r="350" spans="1:6">
       <c r="A350" s="13" t="s">
-        <v>1338</v>
+        <v>1339</v>
       </c>
       <c r="B350" s="13" t="s">
-        <v>1339</v>
+        <v>1340</v>
       </c>
       <c r="C350" s="14" t="s">
-        <v>1340</v>
+        <v>1341</v>
       </c>
       <c r="D350" s="15" t="s">
-        <v>1341</v>
+        <v>1342</v>
       </c>
       <c r="E350" s="16" t="s">
         <v>10</v>
@@ -23395,16 +23398,16 @@
     </row>
     <row r="351" spans="1:6">
       <c r="A351" s="13" t="s">
-        <v>1342</v>
+        <v>1343</v>
       </c>
       <c r="B351" s="13" t="s">
-        <v>1149</v>
+        <v>1150</v>
       </c>
       <c r="C351" s="14" t="s">
-        <v>1150</v>
+        <v>1151</v>
       </c>
       <c r="D351" s="17" t="s">
-        <v>1151</v>
+        <v>1152</v>
       </c>
       <c r="E351" s="16" t="s">
         <v>10</v>
@@ -23413,16 +23416,16 @@
     </row>
     <row r="352" spans="1:6">
       <c r="A352" s="13" t="s">
-        <v>1343</v>
+        <v>1344</v>
       </c>
       <c r="B352" s="13" t="s">
-        <v>1153</v>
+        <v>1154</v>
       </c>
       <c r="C352" s="14" t="s">
-        <v>1154</v>
+        <v>1155</v>
       </c>
       <c r="D352" s="17" t="s">
-        <v>1155</v>
+        <v>1156</v>
       </c>
       <c r="E352" s="16" t="s">
         <v>10</v>
@@ -23431,16 +23434,16 @@
     </row>
     <row r="353" spans="1:6">
       <c r="A353" s="13" t="s">
-        <v>1344</v>
+        <v>1345</v>
       </c>
       <c r="B353" s="13" t="s">
-        <v>1157</v>
+        <v>1158</v>
       </c>
       <c r="C353" s="14" t="s">
-        <v>1158</v>
+        <v>1159</v>
       </c>
       <c r="D353" s="15" t="s">
-        <v>1159</v>
+        <v>1160</v>
       </c>
       <c r="E353" s="16" t="s">
         <v>10</v>
@@ -23449,16 +23452,16 @@
     </row>
     <row r="354" spans="1:6">
       <c r="A354" s="13" t="s">
-        <v>1345</v>
+        <v>1346</v>
       </c>
       <c r="B354" s="13" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="C354" s="14" t="s">
-        <v>1161</v>
+        <v>1162</v>
       </c>
       <c r="D354" s="15" t="s">
-        <v>1162</v>
+        <v>1163</v>
       </c>
       <c r="E354" s="16" t="s">
         <v>10</v>
@@ -23467,16 +23470,16 @@
     </row>
     <row r="355" spans="1:6">
       <c r="A355" s="13" t="s">
-        <v>1346</v>
+        <v>1347</v>
       </c>
       <c r="B355" s="13" t="s">
-        <v>1077</v>
+        <v>1078</v>
       </c>
       <c r="C355" s="14" t="s">
-        <v>1164</v>
+        <v>1165</v>
       </c>
       <c r="D355" s="15" t="s">
-        <v>1165</v>
+        <v>1166</v>
       </c>
       <c r="E355" s="16" t="s">
         <v>10</v>
@@ -23485,16 +23488,16 @@
     </row>
     <row r="356" spans="1:6">
       <c r="A356" s="13" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="B356" s="13" t="s">
-        <v>1081</v>
+        <v>1082</v>
       </c>
       <c r="C356" s="14" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
       <c r="D356" s="15" t="s">
-        <v>1168</v>
+        <v>1169</v>
       </c>
       <c r="E356" s="16" t="s">
         <v>10</v>
@@ -23503,16 +23506,16 @@
     </row>
     <row r="357" spans="1:6">
       <c r="A357" s="13" t="s">
-        <v>1348</v>
+        <v>1349</v>
       </c>
       <c r="B357" s="13" t="s">
-        <v>1085</v>
+        <v>1086</v>
       </c>
       <c r="C357" s="14" t="s">
-        <v>1170</v>
+        <v>1171</v>
       </c>
       <c r="D357" s="15" t="s">
-        <v>1171</v>
+        <v>1172</v>
       </c>
       <c r="E357" s="16" t="s">
         <v>10</v>
@@ -23521,16 +23524,16 @@
     </row>
     <row r="358" spans="1:6">
       <c r="A358" s="13" t="s">
-        <v>1349</v>
+        <v>1350</v>
       </c>
       <c r="B358" s="13" t="s">
-        <v>1089</v>
+        <v>1090</v>
       </c>
       <c r="C358" s="14" t="s">
-        <v>1173</v>
+        <v>1174</v>
       </c>
       <c r="D358" s="17" t="s">
-        <v>1174</v>
+        <v>1175</v>
       </c>
       <c r="E358" s="16" t="s">
         <v>10</v>
@@ -23539,16 +23542,16 @@
     </row>
     <row r="359" spans="1:6">
       <c r="A359" s="13" t="s">
-        <v>1350</v>
+        <v>1351</v>
       </c>
       <c r="B359" s="13" t="s">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="C359" s="14" t="s">
-        <v>1176</v>
+        <v>1177</v>
       </c>
       <c r="D359" s="17" t="s">
-        <v>1177</v>
+        <v>1178</v>
       </c>
       <c r="E359" s="16" t="s">
         <v>10</v>
@@ -23557,16 +23560,16 @@
     </row>
     <row r="360" spans="1:6">
       <c r="A360" s="13" t="s">
-        <v>1351</v>
+        <v>1352</v>
       </c>
       <c r="B360" s="13" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
       <c r="C360" s="14" t="s">
-        <v>1179</v>
+        <v>1180</v>
       </c>
       <c r="D360" s="15" t="s">
-        <v>1180</v>
+        <v>1181</v>
       </c>
       <c r="E360" s="16" t="s">
         <v>10</v>
@@ -23575,16 +23578,16 @@
     </row>
     <row r="361" spans="1:6">
       <c r="A361" s="13" t="s">
-        <v>1352</v>
+        <v>1353</v>
       </c>
       <c r="B361" s="13" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="C361" s="14" t="s">
-        <v>1182</v>
+        <v>1183</v>
       </c>
       <c r="D361" s="17" t="s">
-        <v>1183</v>
+        <v>1184</v>
       </c>
       <c r="E361" s="16" t="s">
         <v>10</v>
@@ -23593,16 +23596,16 @@
     </row>
     <row r="362" spans="1:6">
       <c r="A362" s="13" t="s">
-        <v>1353</v>
+        <v>1354</v>
       </c>
       <c r="B362" s="13" t="s">
-        <v>1105</v>
+        <v>1106</v>
       </c>
       <c r="C362" s="14" t="s">
-        <v>1185</v>
+        <v>1186</v>
       </c>
       <c r="D362" s="15" t="s">
-        <v>1186</v>
+        <v>1187</v>
       </c>
       <c r="E362" s="16" t="s">
         <v>10</v>
@@ -23611,16 +23614,16 @@
     </row>
     <row r="363" spans="1:6">
       <c r="A363" s="13" t="s">
-        <v>1354</v>
+        <v>1355</v>
       </c>
       <c r="B363" s="13" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="C363" s="14" t="s">
-        <v>1188</v>
+        <v>1189</v>
       </c>
       <c r="D363" s="17" t="s">
-        <v>1189</v>
+        <v>1190</v>
       </c>
       <c r="E363" s="16" t="s">
         <v>10</v>
@@ -23629,16 +23632,16 @@
     </row>
     <row r="364" spans="1:6">
       <c r="A364" s="13" t="s">
-        <v>1355</v>
+        <v>1356</v>
       </c>
       <c r="B364" s="13" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="C364" s="14" t="s">
-        <v>1191</v>
+        <v>1192</v>
       </c>
       <c r="D364" s="15" t="s">
-        <v>1192</v>
+        <v>1193</v>
       </c>
       <c r="E364" s="16" t="s">
         <v>10</v>
@@ -23647,16 +23650,16 @@
     </row>
     <row r="365" spans="1:6">
       <c r="A365" s="13" t="s">
-        <v>1356</v>
+        <v>1357</v>
       </c>
       <c r="B365" s="13" t="s">
-        <v>1121</v>
+        <v>1122</v>
       </c>
       <c r="C365" s="14" t="s">
-        <v>1194</v>
+        <v>1195</v>
       </c>
       <c r="D365" s="15" t="s">
-        <v>1195</v>
+        <v>1196</v>
       </c>
       <c r="E365" s="16" t="s">
         <v>10</v>
@@ -23665,16 +23668,16 @@
     </row>
     <row r="366" spans="1:6">
       <c r="A366" s="13" t="s">
-        <v>1357</v>
+        <v>1358</v>
       </c>
       <c r="B366" s="13" t="s">
-        <v>1125</v>
+        <v>1126</v>
       </c>
       <c r="C366" s="14" t="s">
-        <v>1197</v>
+        <v>1198</v>
       </c>
       <c r="D366" s="17" t="s">
-        <v>1198</v>
+        <v>1199</v>
       </c>
       <c r="E366" s="16" t="s">
         <v>10</v>
@@ -23683,16 +23686,16 @@
     </row>
     <row r="367" spans="1:6">
       <c r="A367" s="13" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="B367" s="13" t="s">
-        <v>1200</v>
+        <v>1201</v>
       </c>
       <c r="C367" s="14" t="s">
-        <v>1201</v>
+        <v>1202</v>
       </c>
       <c r="D367" s="17" t="s">
-        <v>1202</v>
+        <v>1203</v>
       </c>
       <c r="E367" s="16" t="s">
         <v>10</v>
@@ -23701,16 +23704,16 @@
     </row>
     <row r="368" spans="1:6">
       <c r="A368" s="13" t="s">
-        <v>1359</v>
+        <v>1360</v>
       </c>
       <c r="B368" s="13" t="s">
-        <v>1129</v>
+        <v>1130</v>
       </c>
       <c r="C368" s="14" t="s">
-        <v>1204</v>
+        <v>1205</v>
       </c>
       <c r="D368" s="15" t="s">
-        <v>1205</v>
+        <v>1206</v>
       </c>
       <c r="E368" s="16" t="s">
         <v>10</v>
@@ -23719,16 +23722,16 @@
     </row>
     <row r="369" spans="1:6">
       <c r="A369" s="13" t="s">
-        <v>1360</v>
+        <v>1361</v>
       </c>
       <c r="B369" s="13" t="s">
-        <v>1133</v>
+        <v>1134</v>
       </c>
       <c r="C369" s="14" t="s">
-        <v>1207</v>
+        <v>1208</v>
       </c>
       <c r="D369" s="15" t="s">
-        <v>1208</v>
+        <v>1209</v>
       </c>
       <c r="E369" s="16" t="s">
         <v>10</v>
@@ -23737,16 +23740,16 @@
     </row>
     <row r="370" spans="1:6">
       <c r="A370" s="13" t="s">
-        <v>1361</v>
+        <v>1362</v>
       </c>
       <c r="B370" s="13" t="s">
-        <v>1137</v>
+        <v>1138</v>
       </c>
       <c r="C370" s="14" t="s">
-        <v>1210</v>
+        <v>1211</v>
       </c>
       <c r="D370" s="15" t="s">
-        <v>1211</v>
+        <v>1212</v>
       </c>
       <c r="E370" s="16" t="s">
         <v>10</v>
@@ -23755,16 +23758,16 @@
     </row>
     <row r="371" spans="1:6">
       <c r="A371" s="13" t="s">
-        <v>1362</v>
+        <v>1363</v>
       </c>
       <c r="B371" s="13" t="s">
-        <v>1213</v>
+        <v>1214</v>
       </c>
       <c r="C371" s="14" t="s">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="D371" s="15" t="s">
-        <v>1215</v>
+        <v>1216</v>
       </c>
       <c r="E371" s="16" t="s">
         <v>10</v>
@@ -23773,16 +23776,16 @@
     </row>
     <row r="372" spans="1:6">
       <c r="A372" s="13" t="s">
-        <v>1363</v>
+        <v>1364</v>
       </c>
       <c r="B372" s="13" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
       <c r="C372" s="14" t="s">
-        <v>1217</v>
+        <v>1218</v>
       </c>
       <c r="D372" s="15" t="s">
-        <v>1218</v>
+        <v>1219</v>
       </c>
       <c r="E372" s="16" t="s">
         <v>10</v>
@@ -23791,16 +23794,16 @@
     </row>
     <row r="373" spans="1:6">
       <c r="A373" s="13" t="s">
-        <v>1364</v>
+        <v>1365</v>
       </c>
       <c r="B373" s="13" t="s">
-        <v>1145</v>
+        <v>1146</v>
       </c>
       <c r="C373" s="14" t="s">
-        <v>1220</v>
+        <v>1221</v>
       </c>
       <c r="D373" s="17" t="s">
-        <v>1221</v>
+        <v>1222</v>
       </c>
       <c r="E373" s="16" t="s">
         <v>10</v>
@@ -23809,16 +23812,16 @@
     </row>
     <row r="374" spans="1:6">
       <c r="A374" s="13" t="s">
-        <v>1365</v>
+        <v>1366</v>
       </c>
       <c r="B374" s="13" t="s">
-        <v>1223</v>
+        <v>1224</v>
       </c>
       <c r="C374" s="14" t="s">
-        <v>1224</v>
+        <v>1225</v>
       </c>
       <c r="D374" s="15" t="s">
-        <v>1225</v>
+        <v>1226</v>
       </c>
       <c r="E374" s="16" t="s">
         <v>10</v>
@@ -23827,16 +23830,16 @@
     </row>
     <row r="375" spans="1:6">
       <c r="A375" s="13" t="s">
-        <v>1366</v>
+        <v>1367</v>
       </c>
       <c r="B375" s="13" t="s">
-        <v>1227</v>
+        <v>1228</v>
       </c>
       <c r="C375" s="14" t="s">
-        <v>1228</v>
+        <v>1229</v>
       </c>
       <c r="D375" s="15" t="s">
-        <v>1229</v>
+        <v>1230</v>
       </c>
       <c r="E375" s="16" t="s">
         <v>10</v>
@@ -23845,16 +23848,16 @@
     </row>
     <row r="376" spans="1:6">
       <c r="A376" s="13" t="s">
-        <v>1367</v>
+        <v>1368</v>
       </c>
       <c r="B376" s="13" t="s">
-        <v>1231</v>
+        <v>1232</v>
       </c>
       <c r="C376" s="14" t="s">
-        <v>1232</v>
+        <v>1233</v>
       </c>
       <c r="D376" s="15" t="s">
-        <v>1233</v>
+        <v>1234</v>
       </c>
       <c r="E376" s="16" t="s">
         <v>10</v>
@@ -23863,16 +23866,16 @@
     </row>
     <row r="377" spans="1:6">
       <c r="A377" s="13" t="s">
-        <v>1368</v>
+        <v>1369</v>
       </c>
       <c r="B377" s="13" t="s">
-        <v>1235</v>
+        <v>1236</v>
       </c>
       <c r="C377" s="14" t="s">
-        <v>1236</v>
+        <v>1237</v>
       </c>
       <c r="D377" s="17" t="s">
-        <v>1237</v>
+        <v>1238</v>
       </c>
       <c r="E377" s="16" t="s">
         <v>10</v>
@@ -23881,16 +23884,16 @@
     </row>
     <row r="378" spans="1:6">
       <c r="A378" s="13" t="s">
-        <v>1369</v>
+        <v>1370</v>
       </c>
       <c r="B378" s="13" t="s">
-        <v>1239</v>
+        <v>1240</v>
       </c>
       <c r="C378" s="14" t="s">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="D378" s="17" t="s">
-        <v>1241</v>
+        <v>1242</v>
       </c>
       <c r="E378" s="16" t="s">
         <v>10</v>
@@ -23899,16 +23902,16 @@
     </row>
     <row r="379" spans="1:6">
       <c r="A379" s="13" t="s">
-        <v>1370</v>
+        <v>1371</v>
       </c>
       <c r="B379" s="13" t="s">
-        <v>1243</v>
+        <v>1244</v>
       </c>
       <c r="C379" s="14" t="s">
-        <v>1244</v>
+        <v>1245</v>
       </c>
       <c r="D379" s="17" t="s">
-        <v>1245</v>
+        <v>1246</v>
       </c>
       <c r="E379" s="16" t="s">
         <v>10</v>
@@ -23917,16 +23920,16 @@
     </row>
     <row r="380" spans="1:6">
       <c r="A380" s="13" t="s">
-        <v>1371</v>
+        <v>1372</v>
       </c>
       <c r="B380" s="13" t="s">
-        <v>1372</v>
+        <v>1373</v>
       </c>
       <c r="C380" s="14" t="s">
-        <v>1373</v>
+        <v>1374</v>
       </c>
       <c r="D380" s="17" t="s">
-        <v>1374</v>
+        <v>1375</v>
       </c>
       <c r="E380" s="16" t="s">
         <v>10</v>
@@ -23935,16 +23938,16 @@
     </row>
     <row r="381" spans="1:6">
       <c r="A381" s="13" t="s">
-        <v>1375</v>
+        <v>1376</v>
       </c>
       <c r="B381" s="13" t="s">
-        <v>1376</v>
+        <v>1377</v>
       </c>
       <c r="C381" s="14" t="s">
-        <v>1377</v>
+        <v>1378</v>
       </c>
       <c r="D381" s="15" t="s">
-        <v>1378</v>
+        <v>1379</v>
       </c>
       <c r="E381" s="16" t="s">
         <v>10</v>
@@ -23953,16 +23956,16 @@
     </row>
     <row r="382" spans="1:6">
       <c r="A382" s="13" t="s">
-        <v>1379</v>
+        <v>1380</v>
       </c>
       <c r="B382" s="13" t="s">
-        <v>1380</v>
+        <v>1381</v>
       </c>
       <c r="C382" s="14" t="s">
-        <v>1381</v>
+        <v>1382</v>
       </c>
       <c r="D382" s="15" t="s">
-        <v>1382</v>
+        <v>1383</v>
       </c>
       <c r="E382" s="16" t="s">
         <v>10</v>
@@ -23971,16 +23974,16 @@
     </row>
     <row r="383" spans="1:6">
       <c r="A383" s="13" t="s">
-        <v>1383</v>
+        <v>1384</v>
       </c>
       <c r="B383" s="13" t="s">
-        <v>1384</v>
+        <v>1385</v>
       </c>
       <c r="C383" s="14" t="s">
-        <v>1385</v>
+        <v>1386</v>
       </c>
       <c r="D383" s="15" t="s">
-        <v>1386</v>
+        <v>1387</v>
       </c>
       <c r="E383" s="16" t="s">
         <v>10</v>
@@ -23989,16 +23992,16 @@
     </row>
     <row r="384" spans="1:6">
       <c r="A384" s="13" t="s">
-        <v>1387</v>
+        <v>1388</v>
       </c>
       <c r="B384" s="13" t="s">
-        <v>1388</v>
+        <v>1389</v>
       </c>
       <c r="C384" s="14" t="s">
-        <v>1389</v>
+        <v>1390</v>
       </c>
       <c r="D384" s="15" t="s">
-        <v>1390</v>
+        <v>1391</v>
       </c>
       <c r="E384" s="16" t="s">
         <v>10</v>
@@ -24007,16 +24010,16 @@
     </row>
     <row r="385" spans="1:6">
       <c r="A385" s="13" t="s">
-        <v>1391</v>
+        <v>1392</v>
       </c>
       <c r="B385" s="13" t="s">
-        <v>1392</v>
+        <v>1393</v>
       </c>
       <c r="C385" s="14" t="s">
-        <v>1393</v>
+        <v>1394</v>
       </c>
       <c r="D385" s="15" t="s">
-        <v>1394</v>
+        <v>1395</v>
       </c>
       <c r="E385" s="16" t="s">
         <v>10</v>
@@ -24025,16 +24028,16 @@
     </row>
     <row r="386" spans="1:6">
       <c r="A386" s="13" t="s">
-        <v>1395</v>
+        <v>1396</v>
       </c>
       <c r="B386" s="13" t="s">
-        <v>1396</v>
+        <v>1397</v>
       </c>
       <c r="C386" s="14" t="s">
-        <v>1397</v>
+        <v>1398</v>
       </c>
       <c r="D386" s="15" t="s">
-        <v>1398</v>
+        <v>1399</v>
       </c>
       <c r="E386" s="16" t="s">
         <v>10</v>
@@ -24043,16 +24046,16 @@
     </row>
     <row r="387" spans="1:6">
       <c r="A387" s="13" t="s">
-        <v>1399</v>
+        <v>1400</v>
       </c>
       <c r="B387" s="13" t="s">
-        <v>1400</v>
+        <v>1401</v>
       </c>
       <c r="C387" s="14" t="s">
-        <v>1401</v>
+        <v>1402</v>
       </c>
       <c r="D387" s="17" t="s">
-        <v>1402</v>
+        <v>1403</v>
       </c>
       <c r="E387" s="16" t="s">
         <v>10</v>
@@ -24061,16 +24064,16 @@
     </row>
     <row r="388" spans="1:6">
       <c r="A388" s="13" t="s">
-        <v>1403</v>
+        <v>1404</v>
       </c>
       <c r="B388" s="13" t="s">
-        <v>1404</v>
+        <v>1405</v>
       </c>
       <c r="C388" s="14" t="s">
-        <v>1405</v>
+        <v>1406</v>
       </c>
       <c r="D388" s="15" t="s">
-        <v>1406</v>
+        <v>1407</v>
       </c>
       <c r="E388" s="16" t="s">
         <v>10</v>
@@ -24079,16 +24082,16 @@
     </row>
     <row r="389" spans="1:6">
       <c r="A389" s="13" t="s">
-        <v>1407</v>
+        <v>1408</v>
       </c>
       <c r="B389" s="13" t="s">
-        <v>1408</v>
+        <v>1409</v>
       </c>
       <c r="C389" s="14" t="s">
-        <v>1409</v>
+        <v>1410</v>
       </c>
       <c r="D389" s="15" t="s">
-        <v>1410</v>
+        <v>1411</v>
       </c>
       <c r="E389" s="16" t="s">
         <v>10</v>
@@ -24097,16 +24100,16 @@
     </row>
     <row r="390" spans="1:6">
       <c r="A390" s="13" t="s">
-        <v>1411</v>
+        <v>1412</v>
       </c>
       <c r="B390" s="13" t="s">
-        <v>1412</v>
+        <v>1413</v>
       </c>
       <c r="C390" s="14" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="D390" s="15" t="s">
-        <v>1414</v>
+        <v>1415</v>
       </c>
       <c r="E390" s="16" t="s">
         <v>10</v>
@@ -24115,16 +24118,16 @@
     </row>
     <row r="391" spans="1:6">
       <c r="A391" s="13" t="s">
-        <v>1415</v>
+        <v>1416</v>
       </c>
       <c r="B391" s="13" t="s">
-        <v>1416</v>
+        <v>1417</v>
       </c>
       <c r="C391" s="14" t="s">
-        <v>1417</v>
+        <v>1418</v>
       </c>
       <c r="D391" s="15" t="s">
-        <v>1418</v>
+        <v>1419</v>
       </c>
       <c r="E391" s="16" t="s">
         <v>10</v>
@@ -24133,16 +24136,16 @@
     </row>
     <row r="392" spans="1:6">
       <c r="A392" s="13" t="s">
-        <v>1419</v>
+        <v>1420</v>
       </c>
       <c r="B392" s="13" t="s">
-        <v>1420</v>
+        <v>1421</v>
       </c>
       <c r="C392" s="14" t="s">
-        <v>1421</v>
+        <v>1422</v>
       </c>
       <c r="D392" s="15" t="s">
-        <v>1422</v>
+        <v>1423</v>
       </c>
       <c r="E392" s="16" t="s">
         <v>10</v>
@@ -24151,16 +24154,16 @@
     </row>
     <row r="393" spans="1:6">
       <c r="A393" s="13" t="s">
-        <v>1423</v>
+        <v>1424</v>
       </c>
       <c r="B393" s="13" t="s">
-        <v>1424</v>
+        <v>1425</v>
       </c>
       <c r="C393" s="14" t="s">
-        <v>1425</v>
+        <v>1426</v>
       </c>
       <c r="D393" s="15" t="s">
-        <v>1426</v>
+        <v>1427</v>
       </c>
       <c r="E393" s="16" t="s">
         <v>10</v>
@@ -24169,16 +24172,16 @@
     </row>
     <row r="394" spans="1:6">
       <c r="A394" s="13" t="s">
-        <v>1427</v>
+        <v>1428</v>
       </c>
       <c r="B394" s="13" t="s">
-        <v>1428</v>
+        <v>1429</v>
       </c>
       <c r="C394" s="14" t="s">
-        <v>1429</v>
+        <v>1430</v>
       </c>
       <c r="D394" s="15" t="s">
-        <v>1430</v>
+        <v>1431</v>
       </c>
       <c r="E394" s="16" t="s">
         <v>10</v>
@@ -24187,16 +24190,16 @@
     </row>
     <row r="395" spans="1:6">
       <c r="A395" s="13" t="s">
-        <v>1431</v>
+        <v>1432</v>
       </c>
       <c r="B395" s="13" t="s">
-        <v>1432</v>
+        <v>1433</v>
       </c>
       <c r="C395" s="14" t="s">
-        <v>1433</v>
+        <v>1434</v>
       </c>
       <c r="D395" s="15" t="s">
-        <v>1434</v>
+        <v>1435</v>
       </c>
       <c r="E395" s="16" t="s">
         <v>10</v>
@@ -24205,16 +24208,16 @@
     </row>
     <row r="396" spans="1:6">
       <c r="A396" s="13" t="s">
-        <v>1435</v>
+        <v>1436</v>
       </c>
       <c r="B396" s="13" t="s">
-        <v>1436</v>
+        <v>1437</v>
       </c>
       <c r="C396" s="14" t="s">
-        <v>1437</v>
+        <v>1438</v>
       </c>
       <c r="D396" s="15" t="s">
-        <v>1438</v>
+        <v>1439</v>
       </c>
       <c r="E396" s="16" t="s">
         <v>10</v>
@@ -24223,16 +24226,16 @@
     </row>
     <row r="397" spans="1:6">
       <c r="A397" s="13" t="s">
-        <v>1439</v>
+        <v>1440</v>
       </c>
       <c r="B397" s="13" t="s">
-        <v>1440</v>
+        <v>1441</v>
       </c>
       <c r="C397" s="14" t="s">
-        <v>1441</v>
+        <v>1442</v>
       </c>
       <c r="D397" s="15" t="s">
-        <v>1442</v>
+        <v>1443</v>
       </c>
       <c r="E397" s="16" t="s">
         <v>10</v>
@@ -24241,16 +24244,16 @@
     </row>
     <row r="398" spans="1:6">
       <c r="A398" s="13" t="s">
-        <v>1443</v>
+        <v>1444</v>
       </c>
       <c r="B398" s="13" t="s">
-        <v>1444</v>
+        <v>1445</v>
       </c>
       <c r="C398" s="14" t="s">
-        <v>1445</v>
+        <v>1446</v>
       </c>
       <c r="D398" s="17" t="s">
-        <v>1446</v>
+        <v>1447</v>
       </c>
       <c r="E398" s="16" t="s">
         <v>10</v>
@@ -24259,16 +24262,16 @@
     </row>
     <row r="399" spans="1:6">
       <c r="A399" s="13" t="s">
-        <v>1447</v>
+        <v>1448</v>
       </c>
       <c r="B399" s="13" t="s">
-        <v>1448</v>
+        <v>1449</v>
       </c>
       <c r="C399" s="14" t="s">
-        <v>1449</v>
+        <v>1450</v>
       </c>
       <c r="D399" s="15" t="s">
-        <v>1450</v>
+        <v>1451</v>
       </c>
       <c r="E399" s="16" t="s">
         <v>10</v>
@@ -24277,16 +24280,16 @@
     </row>
     <row r="400" spans="1:6">
       <c r="A400" s="13" t="s">
-        <v>1451</v>
+        <v>1452</v>
       </c>
       <c r="B400" s="13" t="s">
-        <v>1452</v>
+        <v>1453</v>
       </c>
       <c r="C400" s="14" t="s">
-        <v>1453</v>
+        <v>1454</v>
       </c>
       <c r="D400" s="15" t="s">
-        <v>1454</v>
+        <v>1455</v>
       </c>
       <c r="E400" s="16" t="s">
         <v>10</v>
@@ -24295,16 +24298,16 @@
     </row>
     <row r="401" spans="1:6">
       <c r="A401" s="13" t="s">
-        <v>1455</v>
+        <v>1456</v>
       </c>
       <c r="B401" s="13" t="s">
-        <v>1456</v>
+        <v>1457</v>
       </c>
       <c r="C401" s="14" t="s">
-        <v>1457</v>
+        <v>1458</v>
       </c>
       <c r="D401" s="15" t="s">
-        <v>1458</v>
+        <v>1459</v>
       </c>
       <c r="E401" s="16" t="s">
         <v>10</v>
@@ -24313,16 +24316,16 @@
     </row>
     <row r="402" spans="1:6">
       <c r="A402" s="13" t="s">
-        <v>1459</v>
+        <v>1460</v>
       </c>
       <c r="B402" s="13" t="s">
-        <v>1460</v>
+        <v>1461</v>
       </c>
       <c r="C402" s="14" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
       <c r="D402" s="15" t="s">
-        <v>1462</v>
+        <v>1463</v>
       </c>
       <c r="E402" s="16" t="s">
         <v>10</v>
@@ -24331,16 +24334,16 @@
     </row>
     <row r="403" spans="1:6">
       <c r="A403" s="13" t="s">
-        <v>1463</v>
+        <v>1464</v>
       </c>
       <c r="B403" s="13" t="s">
-        <v>1464</v>
+        <v>1465</v>
       </c>
       <c r="C403" s="14" t="s">
-        <v>1465</v>
+        <v>1466</v>
       </c>
       <c r="D403" s="15" t="s">
-        <v>1466</v>
+        <v>1467</v>
       </c>
       <c r="E403" s="16" t="s">
         <v>10</v>
@@ -24349,16 +24352,16 @@
     </row>
     <row r="404" spans="1:6">
       <c r="A404" s="13" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="B404" s="13" t="s">
-        <v>1468</v>
+        <v>1469</v>
       </c>
       <c r="C404" s="14" t="s">
-        <v>1469</v>
+        <v>1470</v>
       </c>
       <c r="D404" s="15" t="s">
-        <v>1470</v>
+        <v>1471</v>
       </c>
       <c r="E404" s="16" t="s">
         <v>10</v>
@@ -24367,451 +24370,451 @@
     </row>
     <row r="405" spans="1:6">
       <c r="A405" s="13" t="s">
-        <v>1471</v>
+        <v>1472</v>
       </c>
       <c r="B405" s="13" t="s">
-        <v>1472</v>
+        <v>1473</v>
       </c>
       <c r="C405" s="14" t="s">
-        <v>1473</v>
+        <v>1474</v>
       </c>
       <c r="D405" s="15" t="s">
-        <v>1474</v>
+        <v>1475</v>
       </c>
       <c r="E405" s="16" t="s">
-        <v>1475</v>
+        <v>1476</v>
       </c>
       <c r="F405" s="7"/>
     </row>
     <row r="406" spans="1:6">
       <c r="A406" s="13" t="s">
+        <v>1477</v>
+      </c>
+      <c r="B406" s="13" t="s">
+        <v>1478</v>
+      </c>
+      <c r="C406" s="14" t="s">
+        <v>1479</v>
+      </c>
+      <c r="D406" s="15" t="s">
+        <v>1480</v>
+      </c>
+      <c r="E406" s="16" t="s">
         <v>1476</v>
-      </c>
-      <c r="B406" s="13" t="s">
-        <v>1477</v>
-      </c>
-      <c r="C406" s="14" t="s">
-        <v>1478</v>
-      </c>
-      <c r="D406" s="15" t="s">
-        <v>1479</v>
-      </c>
-      <c r="E406" s="16" t="s">
-        <v>1475</v>
       </c>
       <c r="F406" s="7"/>
     </row>
     <row r="407" spans="1:6">
       <c r="A407" s="13" t="s">
-        <v>1480</v>
+        <v>1481</v>
       </c>
       <c r="B407" s="13" t="s">
-        <v>1481</v>
+        <v>1482</v>
       </c>
       <c r="C407" s="14" t="s">
-        <v>1482</v>
+        <v>1483</v>
       </c>
       <c r="D407" s="15" t="s">
-        <v>1483</v>
+        <v>1484</v>
       </c>
       <c r="E407" s="16" t="s">
-        <v>1475</v>
+        <v>1476</v>
       </c>
       <c r="F407" s="7"/>
     </row>
     <row r="408" spans="1:6">
       <c r="A408" s="13" t="s">
-        <v>1484</v>
+        <v>1485</v>
       </c>
       <c r="B408" s="13" t="s">
-        <v>1485</v>
+        <v>1486</v>
       </c>
       <c r="C408" s="14" t="s">
-        <v>1486</v>
+        <v>1487</v>
       </c>
       <c r="D408" s="15" t="s">
-        <v>1487</v>
+        <v>1488</v>
       </c>
       <c r="E408" s="16" t="s">
-        <v>1475</v>
+        <v>1476</v>
       </c>
       <c r="F408" s="7"/>
     </row>
     <row r="409" spans="1:6">
       <c r="A409" s="13" t="s">
-        <v>1488</v>
+        <v>1489</v>
       </c>
       <c r="B409" s="13" t="s">
-        <v>1489</v>
+        <v>1490</v>
       </c>
       <c r="C409" s="14" t="s">
-        <v>1490</v>
+        <v>1491</v>
       </c>
       <c r="D409" s="15" t="s">
-        <v>1491</v>
+        <v>1492</v>
       </c>
       <c r="E409" s="16" t="s">
-        <v>1475</v>
+        <v>1476</v>
       </c>
       <c r="F409" s="7"/>
     </row>
     <row r="410" spans="1:6">
       <c r="A410" s="13" t="s">
-        <v>1492</v>
+        <v>1493</v>
       </c>
       <c r="B410" s="13" t="s">
-        <v>1493</v>
+        <v>1494</v>
       </c>
       <c r="C410" s="14" t="s">
-        <v>1494</v>
+        <v>1495</v>
       </c>
       <c r="D410" s="15" t="s">
-        <v>1495</v>
+        <v>1496</v>
       </c>
       <c r="E410" s="16" t="s">
-        <v>1475</v>
+        <v>1476</v>
       </c>
       <c r="F410" s="7"/>
     </row>
     <row r="411" spans="1:6">
       <c r="A411" s="13" t="s">
-        <v>1496</v>
+        <v>1497</v>
       </c>
       <c r="B411" s="13" t="s">
-        <v>1497</v>
+        <v>1498</v>
       </c>
       <c r="C411" s="14" t="s">
-        <v>1498</v>
+        <v>1499</v>
       </c>
       <c r="D411" s="15" t="s">
-        <v>1499</v>
+        <v>1500</v>
       </c>
       <c r="E411" s="16" t="s">
-        <v>1475</v>
+        <v>1476</v>
       </c>
       <c r="F411" s="7"/>
     </row>
     <row r="412" spans="1:6">
       <c r="A412" s="13" t="s">
-        <v>1500</v>
+        <v>1501</v>
       </c>
       <c r="B412" s="13" t="s">
-        <v>1501</v>
+        <v>1502</v>
       </c>
       <c r="C412" s="14" t="s">
-        <v>1502</v>
+        <v>1503</v>
       </c>
       <c r="D412" s="15" t="s">
-        <v>1503</v>
+        <v>1504</v>
       </c>
       <c r="E412" s="16" t="s">
-        <v>1475</v>
+        <v>1476</v>
       </c>
       <c r="F412" s="7"/>
     </row>
     <row r="413" spans="1:6">
       <c r="A413" s="13" t="s">
-        <v>1504</v>
+        <v>1505</v>
       </c>
       <c r="B413" s="13" t="s">
-        <v>1505</v>
+        <v>1506</v>
       </c>
       <c r="C413" s="14" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
       <c r="D413" s="17" t="s">
-        <v>1507</v>
+        <v>1508</v>
       </c>
       <c r="E413" s="16" t="s">
-        <v>1475</v>
+        <v>1476</v>
       </c>
       <c r="F413" s="7"/>
     </row>
     <row r="414" spans="1:6">
       <c r="A414" s="13" t="s">
-        <v>1508</v>
+        <v>1509</v>
       </c>
       <c r="B414" s="13" t="s">
-        <v>1509</v>
+        <v>1510</v>
       </c>
       <c r="C414" s="14" t="s">
-        <v>1510</v>
+        <v>1511</v>
       </c>
       <c r="D414" s="17" t="s">
-        <v>1511</v>
+        <v>1512</v>
       </c>
       <c r="E414" s="16" t="s">
-        <v>1475</v>
+        <v>1476</v>
       </c>
       <c r="F414" s="7"/>
     </row>
     <row r="415" spans="1:6">
       <c r="A415" s="13" t="s">
-        <v>1512</v>
+        <v>1513</v>
       </c>
       <c r="B415" s="13" t="s">
-        <v>1513</v>
+        <v>1514</v>
       </c>
       <c r="C415" s="14" t="s">
-        <v>1514</v>
+        <v>1515</v>
       </c>
       <c r="D415" s="15" t="s">
-        <v>1515</v>
+        <v>1516</v>
       </c>
       <c r="E415" s="16" t="s">
-        <v>1475</v>
+        <v>1476</v>
       </c>
       <c r="F415" s="7"/>
     </row>
     <row r="416" spans="1:6">
       <c r="A416" s="13" t="s">
-        <v>1516</v>
+        <v>1517</v>
       </c>
       <c r="B416" s="13" t="s">
-        <v>1517</v>
+        <v>1518</v>
       </c>
       <c r="C416" s="14" t="s">
-        <v>1518</v>
+        <v>1519</v>
       </c>
       <c r="D416" s="15" t="s">
-        <v>1519</v>
+        <v>1520</v>
       </c>
       <c r="E416" s="16" t="s">
-        <v>1475</v>
+        <v>1476</v>
       </c>
       <c r="F416" s="7"/>
     </row>
     <row r="417" spans="1:6">
       <c r="A417" s="13" t="s">
-        <v>1520</v>
+        <v>1521</v>
       </c>
       <c r="B417" s="13" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="C417" s="14" t="s">
-        <v>1522</v>
+        <v>1523</v>
       </c>
       <c r="D417" s="15" t="s">
-        <v>1523</v>
+        <v>1524</v>
       </c>
       <c r="E417" s="16" t="s">
-        <v>1475</v>
+        <v>1476</v>
       </c>
       <c r="F417" s="7"/>
     </row>
     <row r="418" spans="1:6">
       <c r="A418" s="13" t="s">
-        <v>1524</v>
+        <v>1525</v>
       </c>
       <c r="B418" s="13" t="s">
-        <v>1525</v>
+        <v>1526</v>
       </c>
       <c r="C418" s="14" t="s">
-        <v>1526</v>
+        <v>1527</v>
       </c>
       <c r="D418" s="15" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="E418" s="16" t="s">
-        <v>1475</v>
+        <v>1476</v>
       </c>
       <c r="F418" s="7"/>
     </row>
     <row r="419" spans="1:6">
       <c r="A419" s="13" t="s">
-        <v>1528</v>
+        <v>1529</v>
       </c>
       <c r="B419" s="13" t="s">
-        <v>1529</v>
+        <v>1530</v>
       </c>
       <c r="C419" s="14" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="D419" s="15" t="s">
-        <v>1531</v>
+        <v>1532</v>
       </c>
       <c r="E419" s="16" t="s">
-        <v>1475</v>
+        <v>1476</v>
       </c>
       <c r="F419" s="7"/>
     </row>
     <row r="420" spans="1:6">
       <c r="A420" s="13" t="s">
-        <v>1532</v>
+        <v>1533</v>
       </c>
       <c r="B420" s="13" t="s">
-        <v>1533</v>
+        <v>1534</v>
       </c>
       <c r="C420" s="14" t="s">
-        <v>1534</v>
+        <v>1535</v>
       </c>
       <c r="D420" s="15" t="s">
-        <v>1535</v>
+        <v>1536</v>
       </c>
       <c r="E420" s="16" t="s">
-        <v>1475</v>
+        <v>1476</v>
       </c>
       <c r="F420" s="7"/>
     </row>
     <row r="421" spans="1:6">
       <c r="A421" s="13" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="B421" s="13" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="C421" s="14" t="s">
-        <v>1538</v>
+        <v>1539</v>
       </c>
       <c r="D421" s="15" t="s">
-        <v>1539</v>
+        <v>1540</v>
       </c>
       <c r="E421" s="16" t="s">
-        <v>1475</v>
+        <v>1476</v>
       </c>
       <c r="F421" s="7"/>
     </row>
     <row r="422" spans="1:6">
       <c r="A422" s="13" t="s">
-        <v>1540</v>
+        <v>1541</v>
       </c>
       <c r="B422" s="13" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="C422" s="14" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="D422" s="15" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="E422" s="16" t="s">
-        <v>1475</v>
+        <v>1476</v>
       </c>
       <c r="F422" s="7"/>
     </row>
     <row r="423" spans="1:6">
       <c r="A423" s="13" t="s">
-        <v>1544</v>
+        <v>1545</v>
       </c>
       <c r="B423" s="13" t="s">
-        <v>1545</v>
+        <v>1546</v>
       </c>
       <c r="C423" s="14" t="s">
-        <v>1546</v>
+        <v>1547</v>
       </c>
       <c r="D423" s="15" t="s">
-        <v>1547</v>
+        <v>1548</v>
       </c>
       <c r="E423" s="16" t="s">
-        <v>1475</v>
+        <v>1476</v>
       </c>
       <c r="F423" s="7"/>
     </row>
     <row r="424" spans="1:6">
       <c r="A424" s="13" t="s">
-        <v>1548</v>
+        <v>1549</v>
       </c>
       <c r="B424" s="13" t="s">
-        <v>1549</v>
+        <v>1550</v>
       </c>
       <c r="C424" s="14" t="s">
-        <v>1550</v>
+        <v>1551</v>
       </c>
       <c r="D424" s="15" t="s">
-        <v>1551</v>
+        <v>1552</v>
       </c>
       <c r="E424" s="16" t="s">
-        <v>1475</v>
+        <v>1476</v>
       </c>
       <c r="F424" s="7"/>
     </row>
     <row r="425" spans="1:6">
       <c r="A425" s="13" t="s">
-        <v>1552</v>
+        <v>1553</v>
       </c>
       <c r="B425" s="13" t="s">
-        <v>1553</v>
+        <v>1554</v>
       </c>
       <c r="C425" s="14" t="s">
-        <v>1554</v>
+        <v>1555</v>
       </c>
       <c r="D425" s="15" t="s">
-        <v>1555</v>
+        <v>1556</v>
       </c>
       <c r="E425" s="16" t="s">
-        <v>1475</v>
+        <v>1476</v>
       </c>
       <c r="F425" s="7"/>
     </row>
     <row r="426" spans="1:6">
       <c r="A426" s="13" t="s">
-        <v>1556</v>
+        <v>1557</v>
       </c>
       <c r="B426" s="13" t="s">
-        <v>1557</v>
+        <v>1558</v>
       </c>
       <c r="C426" s="14" t="s">
-        <v>1558</v>
+        <v>1559</v>
       </c>
       <c r="D426" s="15" t="s">
-        <v>1559</v>
+        <v>1560</v>
       </c>
       <c r="E426" s="16" t="s">
-        <v>1475</v>
+        <v>1476</v>
       </c>
       <c r="F426" s="7"/>
     </row>
     <row r="427" spans="1:6">
       <c r="A427" s="13" t="s">
-        <v>1560</v>
+        <v>1561</v>
       </c>
       <c r="B427" s="13" t="s">
-        <v>1561</v>
+        <v>1562</v>
       </c>
       <c r="C427" s="14" t="s">
-        <v>1562</v>
+        <v>1563</v>
       </c>
       <c r="D427" s="17" t="s">
-        <v>1563</v>
+        <v>1564</v>
       </c>
       <c r="E427" s="16" t="s">
-        <v>1475</v>
+        <v>1476</v>
       </c>
       <c r="F427" s="7"/>
     </row>
     <row r="428" spans="1:6">
       <c r="A428" s="13" t="s">
-        <v>1564</v>
+        <v>1565</v>
       </c>
       <c r="B428" s="13" t="s">
-        <v>1565</v>
+        <v>1566</v>
       </c>
       <c r="C428" s="14" t="s">
-        <v>1566</v>
+        <v>1567</v>
       </c>
       <c r="D428" s="15" t="s">
-        <v>1567</v>
+        <v>1568</v>
       </c>
       <c r="E428" s="16" t="s">
-        <v>1475</v>
+        <v>1476</v>
       </c>
       <c r="F428" s="7"/>
     </row>
     <row r="429" spans="1:6">
       <c r="A429" s="13" t="s">
-        <v>1568</v>
+        <v>1569</v>
       </c>
       <c r="B429" s="13" t="s">
-        <v>1569</v>
+        <v>1570</v>
       </c>
       <c r="C429" s="14" t="s">
-        <v>1570</v>
+        <v>1571</v>
       </c>
       <c r="D429" s="15" t="s">
-        <v>1571</v>
+        <v>1572</v>
       </c>
       <c r="E429" s="16" t="s">
-        <v>1475</v>
+        <v>1476</v>
       </c>
       <c r="F429" s="7"/>
     </row>
